--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>89500</v>
+      </c>
+      <c r="F8" s="3">
         <v>102000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>85000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>97000</v>
       </c>
       <c r="G8" s="3">
         <v>85000</v>
       </c>
       <c r="H8" s="3">
+        <v>97000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>85000</v>
+      </c>
+      <c r="J8" s="3">
         <v>94000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>84000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>101000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>365700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>97000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>84000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>93000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>324300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>502000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>69200</v>
+      </c>
+      <c r="F9" s="3">
         <v>77000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>72000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>68000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>78300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>69000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>71000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>71000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>297200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>76000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>75000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>72000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>278400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>399000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F10" s="3">
         <v>25000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>13000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>29000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>6700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>25000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>13000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>30000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>68500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>21000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>9000</v>
       </c>
       <c r="N10" s="3">
         <v>21000</v>
       </c>
       <c r="O10" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>21000</v>
+      </c>
+      <c r="Q10" s="3">
         <v>45900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>103000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-11000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-63000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-28800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>20000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>72300</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>72300</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>72300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>74400</v>
+      </c>
+      <c r="F17" s="3">
         <v>73000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>79000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>78000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>93300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>75000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>76000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>323400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>87000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>90000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>79000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>395200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>432000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F18" s="3">
         <v>29000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>19000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-8300</v>
       </c>
       <c r="H18" s="3">
         <v>19000</v>
       </c>
       <c r="I18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K18" s="3">
         <v>8000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>86000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>42300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>14000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-70900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>70000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-13000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-20000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-52800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-26000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-36000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>472000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-177900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-26000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-42000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-356000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F21" s="3">
         <v>24000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-53600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-21000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>566000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>42800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>27000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>18000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>20000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-254500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>24200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1432,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F23" s="3">
         <v>16000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-61000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-28000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>558000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-135600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-16000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-26000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-28000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-426900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>72800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>4000</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>19000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F26" s="3">
         <v>9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-61500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-11000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-29000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>552000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-208400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-20000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-26000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-32000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-429200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-60200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-16000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-29000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>545000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-240000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-20000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-38000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-42000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-447100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,55 +1750,67 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F29" s="3">
         <v>26000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-1600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-4000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>476600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-3000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>47000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>22000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>35200</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F32" s="3">
         <v>13000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>20000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>52800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>26000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>36000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-472000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>177900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>26000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>42000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>356000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>94000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F33" s="3">
         <v>28000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-12000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-61800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-20000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-29000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>545000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>236600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-23000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-20000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-411900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F35" s="3">
         <v>28000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-12000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-61800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-20000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-29000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>545000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>236600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-23000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-20000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-411900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,149 +2225,169 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>279400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>147200</v>
+      </c>
+      <c r="F41" s="3">
         <v>210000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>138000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>161000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>131100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>275000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>429000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>455000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1417400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>498000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>366000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>328000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>326600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>451000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F42" s="3">
         <v>72000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>78000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>51000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>49900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>28000</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>7100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>50000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>54000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>110000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>89500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>85000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F43" s="3">
         <v>34000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>32000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>33000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>35500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>43000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>31000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>35000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>44400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>383000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>280000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>289000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>296000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>271000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2225,260 +2416,296 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>83000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>82000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>89000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>91700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>87000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>109500</v>
+      </c>
+      <c r="F45" s="3">
         <v>147000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>116000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>111100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>21000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>18000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>20000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>35800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>40000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>102000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>53000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>49800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>62000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>577300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>329500</v>
+      </c>
+      <c r="F46" s="3">
         <v>463000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>364000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>345000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>327700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>367000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>478000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>510000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1504600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1054000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>884000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>869000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>853600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>956000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>119700</v>
+      </c>
+      <c r="F47" s="3">
         <v>304000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>297000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>290000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>301200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>478000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>498000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>509000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>228400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>287000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>295000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>185000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>208200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>295000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>684800</v>
+      </c>
+      <c r="F48" s="3">
         <v>681000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>670000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>659000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>635100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>627000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>609000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>628000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>616200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3503000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3507000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3553000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3497300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3524000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>4100</v>
       </c>
       <c r="E49" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F49" s="3">
         <v>1000</v>
       </c>
       <c r="G49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="3">
         <v>1300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2000</v>
       </c>
       <c r="J49" s="3">
         <v>2000</v>
       </c>
       <c r="K49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M49" s="3">
         <v>1600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>362000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>364000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>366000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>376800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>359000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>373100</v>
+      </c>
+      <c r="F52" s="3">
         <v>202000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>198000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>194000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>189800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>187000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>182000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>175000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>175000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>153000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>161000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>212000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>201900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>129000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3705500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1508400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1651000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1530000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1489000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1455100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1661000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1769000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1824000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2525900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5359000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5211000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5185000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5137800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5263000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F57" s="3">
         <v>62000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>61000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>58000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>47700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>65000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>49000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>42000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>58900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>260000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>226000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>289000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>285600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>336000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>46500</v>
+      </c>
+      <c r="F58" s="3">
         <v>40000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>36000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>28000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>23200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>23000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>79000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>86000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>448000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>225000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>322000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>501000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>482800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>364000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F59" s="3">
         <v>36000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>16000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>28000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>19000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>106000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>125000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>299500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>179000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>213000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>251000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>276300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>343000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>569100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F60" s="3">
         <v>138000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>113000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>114000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>89900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>105000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>234000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>253000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>806300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>664000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>761000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1041000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1044800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1043000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1994200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>581800</v>
+      </c>
+      <c r="F61" s="3">
         <v>586000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>582000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>575000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>563200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>585000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>564000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>584000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>588500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3344000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3170000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2892000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2829600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2941000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>109800</v>
+      </c>
+      <c r="F62" s="3">
         <v>109000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>102000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>99000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>86200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>88000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>84000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>85000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>79600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>360000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>375000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>363000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>369200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>345000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2939400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>885000</v>
+      </c>
+      <c r="F66" s="3">
         <v>936000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>879000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>855000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>806100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>848000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>949000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>997000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1542700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4622000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4522000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4514000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4456600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4545000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F72" s="3">
         <v>92000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>42000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>33000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>45800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>207000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>229000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>258000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-282500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-531000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-575000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-584000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-564500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-533000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>766000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>623400</v>
+      </c>
+      <c r="F76" s="3">
         <v>715000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>651000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>634000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>649000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>813000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>820000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>827000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>983100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>737000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>689000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>671000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>681200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>718000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F81" s="3">
         <v>28000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-12000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-61800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-20000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-29000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>545000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>236600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-23000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-20000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-411900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F83" s="3">
         <v>8000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7000</v>
       </c>
       <c r="J83" s="3">
         <v>8000</v>
       </c>
       <c r="K83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M83" s="3">
         <v>178500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>43000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>44000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>48000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>172400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>48200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F89" s="3">
         <v>35000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>47000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>163400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>13000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-134000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>391900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>40000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>101000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>101000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>162300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>65600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-36300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-227600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-60000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-56000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-40000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-290600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-32400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-309500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F94" s="3">
         <v>3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-46000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-197400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-115000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-18000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>217000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>584500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-62000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-114000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-399600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="F100" s="3">
         <v>31000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-8000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-108600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-50000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-10000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>97100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>90000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>174600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>119200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>3000</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="F101" s="3">
         <v>3000</v>
       </c>
       <c r="G101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>17300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>5400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="F102" s="3">
         <v>72000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-23000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>30000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-144300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-154000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-26000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-962000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1090800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>132000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>38000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-57300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>149900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -747,8 +747,8 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>89000</v>
       </c>
       <c r="E8" s="3">
         <v>89500</v>
@@ -800,8 +800,8 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>65000</v>
       </c>
       <c r="E9" s="3">
         <v>69200</v>
@@ -853,8 +853,8 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>24000</v>
       </c>
       <c r="E10" s="3">
         <v>20300</v>
@@ -1033,8 +1033,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-6000</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
@@ -1157,8 +1157,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>67000</v>
       </c>
       <c r="E17" s="3">
         <v>74400</v>
@@ -1210,8 +1210,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>22000</v>
       </c>
       <c r="E18" s="3">
         <v>15100</v>
@@ -1284,8 +1284,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
         <v>-30700</v>
@@ -1337,8 +1337,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>32000</v>
       </c>
       <c r="E21" s="3">
         <v>-6400</v>
@@ -1443,8 +1443,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>25000</v>
       </c>
       <c r="E23" s="3">
         <v>-15500</v>
@@ -1496,8 +1496,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>5000</v>
       </c>
       <c r="E24" s="3">
         <v>2700</v>
@@ -1602,8 +1602,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>20000</v>
       </c>
       <c r="E26" s="3">
         <v>-18200</v>
@@ -1655,8 +1655,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>15000</v>
       </c>
       <c r="E27" s="3">
         <v>-22000</v>
@@ -1761,8 +1761,8 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>-1300</v>
@@ -1920,8 +1920,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
         <v>30700</v>
@@ -1973,8 +1973,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>15000</v>
       </c>
       <c r="E33" s="3">
         <v>-23400</v>
@@ -2079,8 +2079,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>15000</v>
       </c>
       <c r="E35" s="3">
         <v>-23400</v>
@@ -2233,7 +2233,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>279400</v>
+        <v>111000</v>
       </c>
       <c r="E41" s="3">
         <v>147200</v>
@@ -2286,7 +2286,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>79300</v>
+        <v>22000</v>
       </c>
       <c r="E42" s="3">
         <v>33600</v>
@@ -2338,8 +2338,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>29000</v>
       </c>
       <c r="E43" s="3">
         <v>39300</v>
@@ -2445,7 +2445,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>116400</v>
+        <v>131000</v>
       </c>
       <c r="E45" s="3">
         <v>109500</v>
@@ -2498,7 +2498,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>577300</v>
+        <v>293000</v>
       </c>
       <c r="E46" s="3">
         <v>329500</v>
@@ -2550,8 +2550,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>118000</v>
       </c>
       <c r="E47" s="3">
         <v>119700</v>
@@ -2603,8 +2603,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>684000</v>
       </c>
       <c r="E48" s="3">
         <v>684800</v>
@@ -2657,7 +2657,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4100</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="3">
         <v>1200</v>
@@ -2816,7 +2816,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>325000</v>
+        <v>454000</v>
       </c>
       <c r="E52" s="3">
         <v>373100</v>
@@ -2922,7 +2922,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3705500</v>
+        <v>1550000</v>
       </c>
       <c r="E54" s="3">
         <v>1508400</v>
@@ -3016,8 +3016,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>34000</v>
       </c>
       <c r="E57" s="3">
         <v>36000</v>
@@ -3070,7 +3070,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2400</v>
+        <v>106000</v>
       </c>
       <c r="E58" s="3">
         <v>46500</v>
@@ -3123,7 +3123,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9700</v>
+        <v>24000</v>
       </c>
       <c r="E59" s="3">
         <v>22500</v>
@@ -3176,7 +3176,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>569100</v>
+        <v>164000</v>
       </c>
       <c r="E60" s="3">
         <v>105000</v>
@@ -3229,7 +3229,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1994200</v>
+        <v>560000</v>
       </c>
       <c r="E61" s="3">
         <v>581800</v>
@@ -3281,8 +3281,8 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>116000</v>
       </c>
       <c r="E62" s="3">
         <v>109800</v>
@@ -3494,7 +3494,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2939400</v>
+        <v>921000</v>
       </c>
       <c r="E66" s="3">
         <v>885000</v>
@@ -3779,8 +3779,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>11000</v>
       </c>
       <c r="E72" s="3">
         <v>3000</v>
@@ -3992,7 +3992,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>766000</v>
+        <v>629000</v>
       </c>
       <c r="E76" s="3">
         <v>623400</v>
@@ -4155,8 +4155,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>15000</v>
       </c>
       <c r="E81" s="3">
         <v>-23400</v>
@@ -4229,8 +4229,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>7000</v>
       </c>
       <c r="E83" s="3">
         <v>9100</v>
@@ -4548,7 +4548,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>82300</v>
+        <v>15000</v>
       </c>
       <c r="E89" s="3">
         <v>-4600</v>
@@ -4622,7 +4622,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51000</v>
+        <v>-28000</v>
       </c>
       <c r="E91" s="3">
         <v>-10100</v>
@@ -4781,7 +4781,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-309500</v>
+        <v>-89000</v>
       </c>
       <c r="E94" s="3">
         <v>50000</v>
@@ -4855,7 +4855,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>122500</v>
+        <v>36000</v>
       </c>
       <c r="E100" s="3">
         <v>-109600</v>
@@ -5119,8 +5119,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
         <v>1300</v>
@@ -5172,8 +5172,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>-35000</v>
       </c>
       <c r="E102" s="3">
         <v>-63000</v>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,211 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F8" s="3">
         <v>89000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>89500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>102000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>85000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>97000</v>
       </c>
       <c r="I8" s="3">
         <v>85000</v>
       </c>
       <c r="J8" s="3">
+        <v>97000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>85000</v>
+      </c>
+      <c r="L8" s="3">
         <v>94000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>84000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>101000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>365700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>97000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>84000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>93000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>324300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>502000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F9" s="3">
         <v>65000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>69200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>77000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>72000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>68000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>78300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>69000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>71000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>71000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>297200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>76000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>75000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>72000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>278400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>399000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,52 +877,58 @@
         <v>24000</v>
       </c>
       <c r="E10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G10" s="3">
         <v>20300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>25000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>13000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>29000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>6700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>25000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>13000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>30000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>68500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>21000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>9000</v>
       </c>
       <c r="P10" s="3">
         <v>21000</v>
       </c>
       <c r="Q10" s="3">
+        <v>9000</v>
+      </c>
+      <c r="R10" s="3">
+        <v>21000</v>
+      </c>
+      <c r="S10" s="3">
         <v>45900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>103000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1062,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-11000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-63000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-28800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>20000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>72300</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>72300</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>72300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F17" s="3">
         <v>67000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>74400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>73000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>79000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>78000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>93300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>75000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>76000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>323400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>87000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>90000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>79000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>395200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>432000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>22000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>15100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>29000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>19000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-8300</v>
       </c>
       <c r="J18" s="3">
         <v>19000</v>
       </c>
       <c r="K18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>19000</v>
+      </c>
+      <c r="M18" s="3">
         <v>8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>86000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>42300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>14000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-70900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>70000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1345,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>278000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-30700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-13000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-52800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-26000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-36000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>472000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-177900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-26000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-356000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-94000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>285000</v>
+      </c>
+      <c r="F21" s="3">
         <v>32000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>24000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-53600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-21000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>566000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>42800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>27000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>18000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>20000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-254500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>24200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1518,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>278000</v>
+      </c>
+      <c r="F23" s="3">
         <v>25000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-15500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>16000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-61000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-28000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>558000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-135600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-16000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-26000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-426900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-24000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>72800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>4000</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>19000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>278000</v>
+      </c>
+      <c r="F26" s="3">
         <v>20000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-18200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-61500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-29000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>552000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-208400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-20000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-26000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-429200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-43000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>279000</v>
+      </c>
+      <c r="F27" s="3">
         <v>15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-22000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-60200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-16000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-29000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>545000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-240000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-20000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-38000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-447100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-48000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1872,73 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>26000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-1600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-4000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>476600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-3000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>47000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>22000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>35200</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-278000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>30700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>13000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>52800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>26000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>36000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-472000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>177900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>26000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>42000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>356000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>94000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>279000</v>
+      </c>
+      <c r="F33" s="3">
         <v>15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-23400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>28000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-12000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-61800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-20000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-29000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>545000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>236600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-23000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-411900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-48000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>279000</v>
+      </c>
+      <c r="F35" s="3">
         <v>15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-23400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>28000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-12000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-61800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-20000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-29000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>545000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>236600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-23000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-411900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-48000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,167 +2399,187 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>398000</v>
+      </c>
+      <c r="F41" s="3">
         <v>111000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>147200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>210000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>138000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>161000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>131100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>275000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>429000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>455000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1417400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>498000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>366000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>328000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>326600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>451000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F42" s="3">
         <v>22000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>33600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>72000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>78000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>51000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>49900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>28000</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>7100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>50000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>54000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>110000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>89500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>85000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F43" s="3">
         <v>29000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>39300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>34000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>32000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>33000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>35500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>43000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>31000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>35000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>44400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>383000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>280000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>289000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>296000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>271000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2422,237 +2614,267 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>83000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>82000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>89000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>91700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>87000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F45" s="3">
         <v>131000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>109500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>147000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>116000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>111100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>21000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>18000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>20000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>35800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>40000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>102000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>53000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>49800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>62000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>464000</v>
+      </c>
+      <c r="F46" s="3">
         <v>293000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>329500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>463000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>364000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>345000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>327700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>367000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>478000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>510000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1504600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1054000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>884000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>869000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>853600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>956000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F47" s="3">
         <v>118000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>119700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>304000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>297000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>290000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>301200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>478000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>498000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>509000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>228400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>287000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>295000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>185000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>208200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>295000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>804000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>784000</v>
+      </c>
+      <c r="F48" s="3">
         <v>684000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>684800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>681000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>670000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>659000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>635100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>627000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>609000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>628000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>616200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3503000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3507000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3553000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3497300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3524000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,52 +2882,58 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
         <v>1000</v>
       </c>
       <c r="G49" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H49" s="3">
         <v>1000</v>
       </c>
       <c r="I49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2000</v>
       </c>
       <c r="L49" s="3">
         <v>2000</v>
       </c>
       <c r="M49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O49" s="3">
         <v>1600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>362000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>364000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>366000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>376800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>359000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>573000</v>
+      </c>
+      <c r="F52" s="3">
         <v>454000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>373100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>202000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>198000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>194000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>189800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>187000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>182000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>175000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>175000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>153000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>161000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>212000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>201900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>129000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2033000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1913000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1550000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1508400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1651000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1530000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1489000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1455100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1661000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1769000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1824000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2525900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5359000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5211000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5185000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5137800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5263000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3271,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F57" s="3">
         <v>34000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>36000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>62000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>61000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>58000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>47700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>65000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>49000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>42000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>58900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>260000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>226000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>289000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>285600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>336000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F58" s="3">
         <v>106000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>46500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>40000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>36000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>28000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>23200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>23000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>79000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>86000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>448000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>225000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>322000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>501000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>482800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>364000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F59" s="3">
         <v>24000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>22500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>36000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>16000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>28000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>19000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>106000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>125000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>299500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>179000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>213000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>251000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>276300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>343000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>128000</v>
+      </c>
+      <c r="F60" s="3">
         <v>164000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>105000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>138000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>113000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>114000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>89900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>105000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>234000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>253000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>806300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>664000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>761000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1041000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1044800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1043000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>693000</v>
+      </c>
+      <c r="F61" s="3">
         <v>560000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>581800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>586000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>582000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>575000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>563200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>585000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>564000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>584000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>588500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3344000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3170000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2892000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2829600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2941000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>119000</v>
+      </c>
+      <c r="F62" s="3">
         <v>116000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>109800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>109000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>102000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>99000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>86200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>88000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>84000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>85000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>79600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>360000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>375000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>363000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>369200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>345000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1022000</v>
+      </c>
+      <c r="F66" s="3">
         <v>921000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>885000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>936000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>879000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>855000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>806100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>848000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>949000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>997000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1542700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4622000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4522000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4514000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4456600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4545000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>293000</v>
+      </c>
+      <c r="F72" s="3">
         <v>11000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>92000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>42000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>33000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>45800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>207000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>229000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>258000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-282500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-531000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-575000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-584000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-564500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-533000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>960000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>891000</v>
+      </c>
+      <c r="F76" s="3">
         <v>629000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>623400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>715000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>651000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>634000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>649000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>813000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>820000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>827000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>983100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>737000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>689000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>671000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>681200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>718000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>279000</v>
+      </c>
+      <c r="F81" s="3">
         <v>15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-23400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>28000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-12000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-61800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-20000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-29000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>545000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>236600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-23000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-411900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-48000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G83" s="3">
         <v>9100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>7400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7000</v>
       </c>
       <c r="L83" s="3">
         <v>8000</v>
       </c>
       <c r="M83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O83" s="3">
         <v>178500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>43000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>44000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>48000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>172400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>48200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F89" s="3">
         <v>15000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>35000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>8000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>47000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>163400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>13000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-134000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>391900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>40000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>101000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>101000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>162300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>65600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-28000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-10100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-8000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-36300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-227600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-60000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-56000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-290600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-32400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
+        <v>211000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-89000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>50000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-46000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-12000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-197400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-115000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-18000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>217000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>584500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-62000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-114000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-399600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-36300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,20 +5315,22 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-6000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F100" s="3">
         <v>36000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-109600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>31000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-8000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-108600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-50000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>97100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>90000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>174600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>119200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
-        <v>1300</v>
+        <v>-2000</v>
       </c>
       <c r="F101" s="3">
         <v>3000</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="H101" s="3">
         <v>3000</v>
       </c>
       <c r="I101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>17300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>5400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
+        <v>286000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-35000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-63000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>72000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-23000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>30000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-144300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-154000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-26000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-962000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1090800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>132000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>38000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-57300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>149900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -1211,8 +1211,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>102000</v>
       </c>
       <c r="E17" s="3">
         <v>76000</v>
@@ -1270,8 +1270,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>15000</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1352,8 +1352,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>50000</v>
       </c>
       <c r="E20" s="3">
         <v>278000</v>
@@ -1411,8 +1411,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>74000</v>
       </c>
       <c r="E21" s="3">
         <v>285000</v>
@@ -1706,8 +1706,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>62000</v>
       </c>
       <c r="E26" s="3">
         <v>278000</v>
@@ -1765,8 +1765,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>59000</v>
       </c>
       <c r="E27" s="3">
         <v>279000</v>
@@ -2060,8 +2060,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-50000</v>
       </c>
       <c r="E32" s="3">
         <v>-278000</v>
@@ -2119,8 +2119,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>67000</v>
       </c>
       <c r="E33" s="3">
         <v>279000</v>
@@ -2237,8 +2237,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>67000</v>
       </c>
       <c r="E35" s="3">
         <v>279000</v>
@@ -2643,7 +2643,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="E45" s="3">
         <v>19000</v>
@@ -3338,16 +3338,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>64000</v>
+        <v>48000</v>
       </c>
       <c r="E58" s="3">
-        <v>63000</v>
+        <v>47000</v>
       </c>
       <c r="F58" s="3">
-        <v>106000</v>
+        <v>105000</v>
       </c>
       <c r="G58" s="3">
-        <v>46500</v>
+        <v>45600</v>
       </c>
       <c r="H58" s="3">
         <v>40000</v>
@@ -3397,16 +3397,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="E59" s="3">
-        <v>11000</v>
+        <v>27000</v>
       </c>
       <c r="F59" s="3">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="G59" s="3">
-        <v>22500</v>
+        <v>23400</v>
       </c>
       <c r="H59" s="3">
         <v>36000</v>
@@ -3515,16 +3515,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>719000</v>
+        <v>714000</v>
       </c>
       <c r="E61" s="3">
-        <v>693000</v>
+        <v>688000</v>
       </c>
       <c r="F61" s="3">
-        <v>560000</v>
+        <v>555000</v>
       </c>
       <c r="G61" s="3">
-        <v>581800</v>
+        <v>576700</v>
       </c>
       <c r="H61" s="3">
         <v>586000</v>
@@ -3574,16 +3574,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>119000</v>
+        <v>124000</v>
       </c>
       <c r="E62" s="3">
-        <v>119000</v>
+        <v>124000</v>
       </c>
       <c r="F62" s="3">
-        <v>116000</v>
+        <v>121000</v>
       </c>
       <c r="G62" s="3">
-        <v>109800</v>
+        <v>114900</v>
       </c>
       <c r="H62" s="3">
         <v>109000</v>
@@ -4545,8 +4545,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>67000</v>
       </c>
       <c r="E81" s="3">
         <v>279000</v>
@@ -5240,8 +5240,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-16000</v>
       </c>
       <c r="E94" s="3">
         <v>211000</v>
@@ -5676,8 +5676,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>34000</v>
       </c>
       <c r="E102" s="3">
         <v>286000</v>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>104500</v>
+      </c>
+      <c r="E8" s="3">
         <v>117000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>76000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>89000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>89500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>102000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>85000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>97000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>85000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>94000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>84000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>365700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>97000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>84000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>93000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>324300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>502000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E9" s="3">
         <v>93000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>66000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>65000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>69200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>77000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>72000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>68000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>78300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>69000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>71000</v>
       </c>
       <c r="N9" s="3">
         <v>71000</v>
       </c>
       <c r="O9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="P9" s="3">
         <v>297200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>76000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>75000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>72000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>278400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>399000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E10" s="3">
         <v>24000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>68500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>45900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>103000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,56 +1098,59 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-11000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-63000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-28800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>20000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>72300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>72300</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E17" s="3">
         <v>102000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>76000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>67000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>74400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>79000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>78000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>93300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>75000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>323400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>87000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>90000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>79000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>395200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>432000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E18" s="3">
         <v>15000</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>22000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>86000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-70900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>70000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>95900</v>
+      </c>
+      <c r="E20" s="3">
         <v>50000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>278000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-30700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-52800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-36000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>472000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-177900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-42000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-356000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-94000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E21" s="3">
         <v>74000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>285000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-53600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-21000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>566000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>42800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-254500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E23" s="3">
         <v>65000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>278000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-28000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>558000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-135600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-26000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-28000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-426900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-24000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>72800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E26" s="3">
         <v>62000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>278000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-61500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-29000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>552000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-208400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-26000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-32000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-429200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-43000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>144600</v>
+      </c>
+      <c r="E27" s="3">
         <v>59000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>279000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-60200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-29000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>545000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-240000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-38000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-42000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-447100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-48000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,67 +1935,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>500</v>
+      </c>
+      <c r="E29" s="3">
         <v>8000</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>26000</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-1000</v>
       </c>
       <c r="J29" s="3">
         <v>-1000</v>
       </c>
       <c r="K29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>476600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>47000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>22000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>35200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-95900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-50000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-278000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>30700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>52800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>36000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-472000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>177900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>42000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>356000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>94000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E33" s="3">
         <v>67000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>279000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-61800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>545000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>236600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-411900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-48000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E35" s="3">
         <v>67000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>279000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-61800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>545000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>236600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-411900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-48000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,185 +2486,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>286200</v>
+      </c>
+      <c r="E41" s="3">
         <v>432000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>398000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>111000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>147200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>210000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>138000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>161000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>131100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>275000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>429000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>455000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1417400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>498000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>366000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>328000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>326600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>451000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16000</v>
+        <v>564200</v>
       </c>
       <c r="E42" s="3">
         <v>16000</v>
       </c>
       <c r="F42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G42" s="3">
         <v>22000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>72000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>78000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>51000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>49900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>28000</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>7100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>50000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>54000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>110000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>89500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>85000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E43" s="3">
         <v>33000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>34000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>43000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>383000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>280000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>289000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>296000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>271000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2620,266 +2715,281 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>83000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>82000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>89000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>91700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>87000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E45" s="3">
         <v>20000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>131000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>109500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>147000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>116000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>111100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>102000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>53000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>49800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>62000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>919800</v>
+      </c>
+      <c r="E46" s="3">
         <v>501000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>464000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>293000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>329500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>463000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>364000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>345000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>327700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>367000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>478000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>510000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1504600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1054000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>884000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>869000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>853600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>956000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>532400</v>
+      </c>
+      <c r="E47" s="3">
         <v>137000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>91000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>118000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>119700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>304000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>297000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>290000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>301200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>478000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>498000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>509000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>228400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>287000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>295000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>185000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>208200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>295000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>904600</v>
+      </c>
+      <c r="E48" s="3">
         <v>804000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>784000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>684000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>684800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>681000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>670000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>659000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>635100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>627000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>609000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>628000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>616200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3503000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3507000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3553000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3497300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3524000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
@@ -2888,10 +2998,10 @@
         <v>1000</v>
       </c>
       <c r="G49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="3">
         <v>1200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1000</v>
       </c>
       <c r="I49" s="3">
         <v>1000</v>
@@ -2900,10 +3010,10 @@
         <v>1000</v>
       </c>
       <c r="K49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L49" s="3">
         <v>1300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2000</v>
       </c>
       <c r="M49" s="3">
         <v>2000</v>
@@ -2912,28 +3022,31 @@
         <v>2000</v>
       </c>
       <c r="O49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P49" s="3">
         <v>1600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>362000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>364000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>366000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>376800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>359000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>124100</v>
+      </c>
+      <c r="E52" s="3">
         <v>590000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>573000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>454000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>373100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>202000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>198000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>194000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>189800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>187000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>182000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>175000</v>
       </c>
       <c r="O52" s="3">
         <v>175000</v>
       </c>
       <c r="P52" s="3">
+        <v>175000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>153000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>161000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>212000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>201900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>129000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2482300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2033000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1913000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1550000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1508400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1651000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1530000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1489000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1455100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1661000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1769000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1824000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2525900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5359000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5211000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5185000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5137800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5263000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E57" s="3">
         <v>68000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>62000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>58000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>58900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>260000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>226000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>289000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>285600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>336000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E58" s="3">
         <v>48000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>105000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>45600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>40000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>36000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>28000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>79000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>86000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>448000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>225000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>322000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>501000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>482800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>364000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E59" s="3">
         <v>33000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>106000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>125000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>299500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>179000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>213000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>251000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>276300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>343000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E60" s="3">
         <v>149000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>128000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>164000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>105000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>138000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>113000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>114000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>89900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>105000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>234000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>253000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>806300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>664000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>761000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1041000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1044800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1043000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>871800</v>
+      </c>
+      <c r="E61" s="3">
         <v>714000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>688000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>555000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>576700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>586000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>582000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>575000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>563200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>585000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>564000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>584000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>588500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3344000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3170000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2892000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2829600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2941000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>124000</v>
+        <v>106600</v>
       </c>
       <c r="E62" s="3">
         <v>124000</v>
       </c>
       <c r="F62" s="3">
+        <v>124000</v>
+      </c>
+      <c r="G62" s="3">
         <v>121000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>114900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>109000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>102000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>99000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>86200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>88000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>84000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>85000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>79600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>360000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>375000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>363000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>369200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>345000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1415500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1073000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1022000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>921000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>885000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>936000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>879000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>855000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>806100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>848000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>949000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>997000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1542700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4622000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4522000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4514000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4456600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4545000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>448500</v>
+      </c>
+      <c r="E72" s="3">
         <v>360000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>293000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>92000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>42000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>33000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>207000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>229000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>258000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-282500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-531000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-575000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-584000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-564500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-533000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1066800</v>
+      </c>
+      <c r="E76" s="3">
         <v>960000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>891000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>629000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>623400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>715000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>651000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>634000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>649000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>813000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>820000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>827000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>983100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>737000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>689000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>671000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>681200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>718000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E81" s="3">
         <v>67000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>279000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-61800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>545000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>236600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-411900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-48000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E83" s="3">
         <v>9000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>7000</v>
       </c>
       <c r="F83" s="3">
         <v>7000</v>
       </c>
       <c r="G83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H83" s="3">
         <v>9100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>8000</v>
       </c>
       <c r="I83" s="3">
         <v>8000</v>
       </c>
       <c r="J83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K83" s="3">
         <v>7000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>178500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>44000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>172400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E89" s="3">
         <v>35000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>33000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>47000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>163400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-134000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>391900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>40000</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>101000</v>
       </c>
       <c r="R89" s="3">
         <v>101000</v>
       </c>
       <c r="S89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="T89" s="3">
         <v>162300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>65600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11000</v>
+        <v>-24500</v>
       </c>
       <c r="E91" s="3">
         <v>-11000</v>
       </c>
       <c r="F91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-28000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-227600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-40000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-290600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-327600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>211000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-89000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>50000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-197400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-115000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>217000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>584500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-62000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-114000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-399600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-36300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5329,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>162800</v>
+      </c>
+      <c r="E100" s="3">
         <v>13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>44000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>36000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-109600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>31000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-108600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-50000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>97100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>90000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>174600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>119200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>17300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="E102" s="3">
         <v>34000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>286000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-63000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>72000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-144300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-154000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-962000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1090800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>132000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>38000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-57300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>149900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E8" s="3">
         <v>104500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>117000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>76000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>89000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>89500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>102000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>85000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>97000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>85000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>94000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>84000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>101000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>365700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>97000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>84000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>93000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>324300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>502000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E9" s="3">
         <v>90200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>93000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>66000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>65000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>69200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>77000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>72000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>68000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>78300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>71000</v>
       </c>
       <c r="O9" s="3">
         <v>71000</v>
       </c>
       <c r="P9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>297200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>76000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>75000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>72000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>278400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>399000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E10" s="3">
         <v>14300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>68500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>45900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>103000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,56 +1121,59 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-11000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-63000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>20000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>72300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>72300</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E17" s="3">
         <v>69000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>102000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>76000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>67000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>74400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>73000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>79000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>93300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>76000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>323400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>87000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>90000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>79000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>395200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>432000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="3">
         <v>35500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15000</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>22000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>29000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>86000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-70900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>70000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E20" s="3">
         <v>95900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>50000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>278000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-30700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-52800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-36000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>472000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-177900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-26000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-42000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-356000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-94000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E21" s="3">
         <v>142600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>74000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>285000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-53600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-21000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>566000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>42800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-254500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E23" s="3">
         <v>131400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>65000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>278000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-61000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-28000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>558000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-135600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-16000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-26000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-28000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-426900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-24000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>72800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E26" s="3">
         <v>134700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>62000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>278000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>552000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-208400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-26000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-32000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-429200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-43000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E27" s="3">
         <v>144600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>59000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>279000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-60200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-29000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>545000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-240000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-38000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-42000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-447100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-48000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,70 +1996,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>8000</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>26000</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-1000</v>
       </c>
       <c r="K29" s="3">
         <v>-1000</v>
       </c>
       <c r="L29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-4000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>476600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>47000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>22000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>35200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-163000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-95900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-50000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-278000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>30700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>52800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>36000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-472000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>177900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>26000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>42000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>356000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>94000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E33" s="3">
         <v>145100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>279000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>28000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-61800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>545000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>236600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-411900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-48000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E35" s="3">
         <v>145100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>279000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>28000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-61800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>545000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>236600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-411900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-48000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,194 +2573,204 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E41" s="3">
         <v>286200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>432000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>398000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>111000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>147200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>210000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>138000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>161000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>131100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>275000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>429000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>455000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1417400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>498000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>366000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>328000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>326600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>451000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E42" s="3">
         <v>564200</v>
-      </c>
-      <c r="E42" s="3">
-        <v>16000</v>
       </c>
       <c r="F42" s="3">
         <v>16000</v>
       </c>
       <c r="G42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="H42" s="3">
         <v>22000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>33600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>72000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>78000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>51000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>49900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>28000</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>7100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>50000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>54000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>110000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>89500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>85000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E43" s="3">
         <v>47900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>43000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>31000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>383000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>280000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>289000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>296000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>271000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2718,281 +2814,296 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>83000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>82000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>89000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>91700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>87000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E45" s="3">
         <v>21400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>131000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>109500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>147000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>116000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>111100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>102000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>53000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>49800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>62000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E46" s="3">
         <v>919800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>501000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>464000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>293000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>329500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>463000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>364000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>345000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>327700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>367000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>478000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>510000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1504600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1054000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>884000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>869000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>853600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>956000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1261000</v>
+      </c>
+      <c r="E47" s="3">
         <v>532400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>137000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>91000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>118000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>119700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>304000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>297000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>290000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>301200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>478000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>498000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>509000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>228400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>287000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>295000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>185000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>208200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>295000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1018000</v>
+      </c>
+      <c r="E48" s="3">
         <v>904600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>804000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>784000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>684000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>684800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>681000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>670000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>659000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>635100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>627000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>609000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>628000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>616200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3503000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3507000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3553000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3497300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3524000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1000</v>
       </c>
       <c r="F49" s="3">
         <v>1000</v>
@@ -3001,10 +3112,10 @@
         <v>1000</v>
       </c>
       <c r="H49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="3">
         <v>1200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1000</v>
       </c>
       <c r="J49" s="3">
         <v>1000</v>
@@ -3013,10 +3124,10 @@
         <v>1000</v>
       </c>
       <c r="L49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M49" s="3">
         <v>1300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>2000</v>
       </c>
       <c r="N49" s="3">
         <v>2000</v>
@@ -3025,28 +3136,31 @@
         <v>2000</v>
       </c>
       <c r="P49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>362000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>364000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>366000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>376800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>359000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E52" s="3">
         <v>124100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>590000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>573000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>454000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>373100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>202000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>198000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>194000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>189800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>187000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>182000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>175000</v>
       </c>
       <c r="P52" s="3">
         <v>175000</v>
       </c>
       <c r="Q52" s="3">
+        <v>175000</v>
+      </c>
+      <c r="R52" s="3">
         <v>153000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>161000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>212000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>201900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>129000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3160000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2482300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2033000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1913000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1550000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1508400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1651000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1530000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1489000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1455100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1661000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1769000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1824000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2525900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5359000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5211000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5185000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5137800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5263000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E57" s="3">
         <v>128200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>68000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>62000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>61000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>58000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>65000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>260000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>226000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>289000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>285600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>336000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E58" s="3">
         <v>46500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>105000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>45600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>40000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>36000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>79000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>86000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>448000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>225000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>322000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>501000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>482800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>364000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E59" s="3">
         <v>53200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>106000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>125000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>299500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>179000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>213000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>251000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>276300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>343000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E60" s="3">
         <v>227900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>149000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>128000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>164000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>105000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>138000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>113000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>114000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>89900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>105000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>234000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>253000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>806300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>664000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>761000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1041000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1044800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1043000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="E61" s="3">
         <v>871800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>714000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>688000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>555000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>576700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>586000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>582000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>575000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>563200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>585000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>564000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>584000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>588500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3344000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3170000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2892000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2829600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2941000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E62" s="3">
         <v>106600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>124000</v>
       </c>
       <c r="F62" s="3">
         <v>124000</v>
       </c>
       <c r="G62" s="3">
+        <v>124000</v>
+      </c>
+      <c r="H62" s="3">
         <v>121000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>114900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>109000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>102000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>99000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>86200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>88000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>84000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>85000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>79600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>360000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>375000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>363000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>369200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>345000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1846000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1415500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1073000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1022000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>921000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>885000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>936000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>879000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>855000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>806100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>848000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>949000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>997000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1542700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4622000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4522000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4514000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4456600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4545000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E72" s="3">
         <v>448500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>360000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>293000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>92000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>45800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>207000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>229000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>258000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-282500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-531000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-575000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-584000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-564500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-533000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1314000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1066800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>960000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>891000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>629000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>623400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>715000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>651000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>634000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>649000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>813000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>820000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>827000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>983100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>737000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>689000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>671000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>681200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>718000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E81" s="3">
         <v>145100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>279000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>28000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-61800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>545000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>236600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-411900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-48000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E83" s="3">
         <v>11200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7000</v>
       </c>
       <c r="G83" s="3">
         <v>7000</v>
       </c>
       <c r="H83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I83" s="3">
         <v>9100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>8000</v>
       </c>
       <c r="J83" s="3">
         <v>8000</v>
       </c>
       <c r="K83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L83" s="3">
         <v>7000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>178500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>44000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>48000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>172400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>48200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>33000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>47000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>163400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-134000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>391900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>40000</v>
-      </c>
-      <c r="R89" s="3">
-        <v>101000</v>
       </c>
       <c r="S89" s="3">
         <v>101000</v>
       </c>
       <c r="T89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="U89" s="3">
         <v>162300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>65600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-11000</v>
       </c>
       <c r="F91" s="3">
         <v>-11000</v>
       </c>
       <c r="G91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-28000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-227600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-290600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-327600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>211000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-89000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>50000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-197400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-115000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>217000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>584500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-62000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-114000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-399600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E100" s="3">
         <v>162800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>44000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>36000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-109600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>31000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-108600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-50000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>97100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>90000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>174600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>119200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>9600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>17300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-146000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>34000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>286000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-35000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-63000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>72000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-144300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-154000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-962000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1090800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>132000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>38000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-57300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>149900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E8" s="3">
         <v>115000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>104500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>117000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>76000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>89000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>89500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>102000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>85000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>97000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>85000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>94000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>84000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>101000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>365700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>97000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>84000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>93000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>324300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>502000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E9" s="3">
         <v>92000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>90200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>93000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>66000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>65000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>69200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>77000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>72000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>68000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>71000</v>
       </c>
       <c r="P9" s="3">
         <v>71000</v>
       </c>
       <c r="Q9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="R9" s="3">
         <v>297200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>76000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>75000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>72000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>278400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>399000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="3">
         <v>23000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>68500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>45900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>103000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1124,56 +1144,59 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-11000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-28800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>20000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>72300</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>72300</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E17" s="3">
         <v>102000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>69000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>102000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>76000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>67000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>74400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>73000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>79000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>93300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>76000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>323400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>87000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>90000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>79000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>395200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>432000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E18" s="3">
         <v>13000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>35500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15000</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>22000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>29000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>86000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-70900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>70000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E20" s="3">
         <v>163000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>95900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>50000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>278000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-30700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-52800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-36000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>472000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-177900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-42000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-356000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-94000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E21" s="3">
         <v>189000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>142600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>74000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>285000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>32000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-53600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-21000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>566000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>42800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-254500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>24200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E23" s="3">
         <v>176000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>131400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>65000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>278000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-61000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>558000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-135600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-16000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-26000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-28000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-426900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-24000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>72800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E26" s="3">
         <v>178000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>134700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>62000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>278000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-61500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-29000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>552000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-208400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-26000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-32000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-429200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-43000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E27" s="3">
         <v>180000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>144600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>59000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>279000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-60200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-29000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>545000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-240000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-38000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-42000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-447100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-48000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2057,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>8000</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>26000</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-1000</v>
       </c>
       <c r="L29" s="3">
         <v>-1000</v>
       </c>
       <c r="M29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-4000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>476600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>47000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>22000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>35200</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-172000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-163000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-95900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-50000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-278000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>30700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>52800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>36000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-472000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>177900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>42000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>356000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>94000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E33" s="3">
         <v>180000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>145100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>67000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>279000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-61800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-29000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>545000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>236600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-23000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-411900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-48000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E35" s="3">
         <v>180000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>145100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>67000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>279000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-61800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-29000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>545000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>236600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-23000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-411900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-48000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,203 +2660,213 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E41" s="3">
         <v>455000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>286200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>432000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>398000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>111000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>147200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>210000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>138000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>161000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>131100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>275000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>429000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>455000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1417400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>498000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>366000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>328000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>326600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>451000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E42" s="3">
         <v>22000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>564200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>16000</v>
       </c>
       <c r="G42" s="3">
         <v>16000</v>
       </c>
       <c r="H42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I42" s="3">
         <v>22000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>33600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>72000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>78000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>51000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>49900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>28000</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>7100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>50000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>54000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>110000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>89500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>85000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E43" s="3">
         <v>44000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>39300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>43000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>31000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>44400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>383000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>280000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>289000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>296000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>271000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2817,296 +2913,311 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>83000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>82000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>89000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>91700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>87000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E45" s="3">
         <v>29000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>131000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>109500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>147000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>116000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>111100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>40000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>102000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>53000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>49800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>62000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>644000</v>
+      </c>
+      <c r="E46" s="3">
         <v>550000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>919800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>501000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>464000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>293000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>329500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>463000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>364000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>345000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>327700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>367000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>478000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>510000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1504600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1054000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>884000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>869000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>853600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>956000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1209000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1261000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>532400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>137000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>91000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>118000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>119700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>304000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>297000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>290000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>301200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>478000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>498000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>509000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>228400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>287000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>295000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>185000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>208200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>295000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1044000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1018000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>904600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>804000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>784000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>684000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>684800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>681000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>670000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>659000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>635100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>627000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>609000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>628000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>616200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3503000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3507000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3553000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3497300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3524000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E49" s="3">
         <v>217000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1000</v>
       </c>
       <c r="G49" s="3">
         <v>1000</v>
@@ -3115,10 +3226,10 @@
         <v>1000</v>
       </c>
       <c r="I49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="3">
         <v>1200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1000</v>
       </c>
       <c r="K49" s="3">
         <v>1000</v>
@@ -3127,10 +3238,10 @@
         <v>1000</v>
       </c>
       <c r="M49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N49" s="3">
         <v>1300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2000</v>
       </c>
       <c r="O49" s="3">
         <v>2000</v>
@@ -3139,28 +3250,31 @@
         <v>2000</v>
       </c>
       <c r="Q49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R49" s="3">
         <v>1600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>362000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>364000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>366000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>376800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>359000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E52" s="3">
         <v>114000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>124100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>590000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>573000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>454000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>373100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>202000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>198000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>194000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>189800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>187000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>182000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>175000</v>
       </c>
       <c r="Q52" s="3">
         <v>175000</v>
       </c>
       <c r="R52" s="3">
+        <v>175000</v>
+      </c>
+      <c r="S52" s="3">
         <v>153000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>161000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>212000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>201900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>129000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3248000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3160000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2482300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2033000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1913000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1550000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1508400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1651000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1530000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1489000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1455100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1661000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1769000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1824000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2525900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5359000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5211000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5185000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5137800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5263000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E57" s="3">
         <v>154000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>128200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>68000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>62000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>61000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>58000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>65000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>58900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>260000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>226000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>289000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>285600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>336000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,259 +3742,271 @@
         <v>50000</v>
       </c>
       <c r="E58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F58" s="3">
         <v>46500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>48000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>105000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>45600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>40000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>79000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>86000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>448000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>225000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>322000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>501000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>482800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>364000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E59" s="3">
         <v>28000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>125000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>299500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>179000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>213000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>251000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>276300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>343000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E60" s="3">
         <v>232000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>227900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>149000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>128000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>164000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>105000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>138000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>113000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>114000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>89900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>105000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>234000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>253000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>806300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>664000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>761000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1041000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1044800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1043000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1042000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1001000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>871800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>714000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>688000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>555000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>576700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>586000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>582000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>575000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>563200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>585000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>564000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>584000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>588500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3344000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3170000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2892000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2829600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2941000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,64 +4014,67 @@
         <v>156000</v>
       </c>
       <c r="E62" s="3">
+        <v>156000</v>
+      </c>
+      <c r="F62" s="3">
         <v>106600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>124000</v>
       </c>
       <c r="G62" s="3">
         <v>124000</v>
       </c>
       <c r="H62" s="3">
+        <v>124000</v>
+      </c>
+      <c r="I62" s="3">
         <v>121000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>114900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>109000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>102000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>99000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>86200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>88000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>84000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>85000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>79600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>360000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>375000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>363000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>369200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>345000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1858000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1846000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1415500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1073000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1022000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>921000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>885000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>936000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>879000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>855000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>806100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>848000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>949000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>997000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1542700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4622000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4522000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4514000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4456600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4545000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>770000</v>
+      </c>
+      <c r="E72" s="3">
         <v>699000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>448500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>360000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>293000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>92000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>207000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>229000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>258000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-282500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-531000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-575000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-584000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-564500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-533000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1390000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1314000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1066800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>960000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>891000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>629000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>623400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>715000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>651000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>634000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>649000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>813000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>820000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>827000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>983100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>737000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>689000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>671000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>681200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>718000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E81" s="3">
         <v>180000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>145100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>67000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>279000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-61800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-29000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>545000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>236600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-23000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-411900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-48000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E83" s="3">
         <v>13000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7000</v>
       </c>
       <c r="H83" s="3">
         <v>7000</v>
       </c>
       <c r="I83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J83" s="3">
         <v>9100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>8000</v>
       </c>
       <c r="K83" s="3">
         <v>8000</v>
       </c>
       <c r="L83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M83" s="3">
         <v>7000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>178500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>172400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>48200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E89" s="3">
         <v>22000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>33000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>47000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>163400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-134000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>391900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40000</v>
-      </c>
-      <c r="S89" s="3">
-        <v>101000</v>
       </c>
       <c r="T89" s="3">
         <v>101000</v>
       </c>
       <c r="U89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="V89" s="3">
         <v>162300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>65600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-11000</v>
       </c>
       <c r="G91" s="3">
         <v>-11000</v>
       </c>
       <c r="H91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-28000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-227600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-290600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-98000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-327600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>211000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-89000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>50000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-197400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-115000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>217000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>584500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-62000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-114000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-399600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E100" s="3">
         <v>254000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>162800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>44000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>36000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-109600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>31000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-108600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-50000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>97100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>90000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>174600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>119200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>17300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E102" s="3">
         <v>169000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-146000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>34000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>286000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-35000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-63000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>72000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>30000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-144300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-154000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-962000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1090800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>132000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>38000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-57300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>149900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E8" s="3">
         <v>105000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>115000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>104500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>117000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>89000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>89500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>102000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>85000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>97000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>85000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>94000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>84000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>101000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>365700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>97000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>84000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>93000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>324300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>502000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E9" s="3">
         <v>93000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>92000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>90200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>93000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>66000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>65000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>69200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>77000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>72000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>68000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>69000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>71000</v>
       </c>
       <c r="Q9" s="3">
         <v>71000</v>
       </c>
       <c r="R9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="S9" s="3">
         <v>297200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>76000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>75000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>72000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>278400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>399000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>68500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>45900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>103000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,62 +1161,65 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>-43500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-6000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-11000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-63000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-28800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>20000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>72300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>72300</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E17" s="3">
         <v>132000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>102000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>69000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>102000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>76000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>74400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>93300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>75000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>76000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>323400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>87000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>90000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>79000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>395200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>432000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>35500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15000</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>22000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>86000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>42300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-70900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>70000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E20" s="3">
         <v>172000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>163000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>95900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>50000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>278000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-30700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-52800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>472000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-177900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-42000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-356000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-94000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E21" s="3">
         <v>161000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>189000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>142600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>74000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>285000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>32000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-53600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>566000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>42800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>18000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-254500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>24200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E23" s="3">
         <v>145000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>176000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>131400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>65000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>278000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>25000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-61000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>558000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-135600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-16000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-26000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-28000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-426900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-24000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>72800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>19000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E26" s="3">
         <v>154000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>178000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>134700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>62000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>278000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-61500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>552000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-208400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-26000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-32000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-429200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-43000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E27" s="3">
         <v>172000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>180000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>144600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>59000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>279000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-60200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>545000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-240000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-38000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-42000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-447100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-48000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,76 +2118,82 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>8000</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>26000</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-1000</v>
       </c>
       <c r="M29" s="3">
         <v>-1000</v>
       </c>
       <c r="N29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>476600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>47000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>22000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>35200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-172000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-163000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-95900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-50000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-278000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>30700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>52800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>36000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-472000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>177900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>42000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>356000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>94000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E33" s="3">
         <v>172000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>180000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>145100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>279000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-61800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>545000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>236600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-23000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-20000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-411900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-48000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E35" s="3">
         <v>172000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>180000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>145100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>279000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-61800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>545000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>236600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-23000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-20000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-411900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-48000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2747,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>723000</v>
+      </c>
+      <c r="E41" s="3">
         <v>310000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>455000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>286200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>432000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>398000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>111000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>147200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>210000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>138000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>161000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>131100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>275000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>429000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>455000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1417400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>498000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>366000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>328000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>326600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>451000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E42" s="3">
         <v>15000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>22000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>564200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>16000</v>
       </c>
       <c r="H42" s="3">
         <v>16000</v>
       </c>
       <c r="I42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J42" s="3">
         <v>22000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>33600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>78000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>51000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>49900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>28000</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>7100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>50000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>54000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>110000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>89500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>85000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E43" s="3">
         <v>99000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>31000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>39300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>43000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>31000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>44400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>383000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>280000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>289000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>296000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>271000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2916,311 +3012,326 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>83000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>82000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>89000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>91700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>87000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E45" s="3">
         <v>220000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>131000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>109500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>147000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>116000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>111100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>35800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>40000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>102000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>53000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>49800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>62000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>865000</v>
+      </c>
+      <c r="E46" s="3">
         <v>644000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>550000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>919800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>501000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>464000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>293000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>329500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>463000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>364000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>345000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>327700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>367000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>478000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>510000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1504600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1054000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>884000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>869000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>853600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>956000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1571000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1209000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1261000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>532400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>137000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>91000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>118000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>119700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>304000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>297000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>290000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>301200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>478000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>498000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>509000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>228400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>287000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>295000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>185000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>208200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>295000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1044000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1018000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>904600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>804000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>784000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>684000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>684800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>681000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>670000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>659000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>635100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>627000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>609000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>628000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>616200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3503000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3507000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3553000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3497300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3524000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E49" s="3">
         <v>214000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>217000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1000</v>
       </c>
       <c r="H49" s="3">
         <v>1000</v>
@@ -3229,10 +3340,10 @@
         <v>1000</v>
       </c>
       <c r="J49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1000</v>
       </c>
       <c r="L49" s="3">
         <v>1000</v>
@@ -3241,10 +3352,10 @@
         <v>1000</v>
       </c>
       <c r="N49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O49" s="3">
         <v>1300</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2000</v>
       </c>
       <c r="P49" s="3">
         <v>2000</v>
@@ -3253,28 +3364,31 @@
         <v>2000</v>
       </c>
       <c r="R49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S49" s="3">
         <v>1600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>362000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>364000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>366000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>376800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>359000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E52" s="3">
         <v>137000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>114000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>124100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>590000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>573000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>454000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>373100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>202000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>198000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>194000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>189800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>187000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>182000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>175000</v>
       </c>
       <c r="R52" s="3">
         <v>175000</v>
       </c>
       <c r="S52" s="3">
+        <v>175000</v>
+      </c>
+      <c r="T52" s="3">
         <v>153000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>161000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>212000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>201900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>129000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3867000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3248000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3160000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2482300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2033000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1913000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1550000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1508400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1651000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1530000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1489000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1455100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1661000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1769000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1824000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2525900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5359000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5211000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5185000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5137800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5263000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E57" s="3">
         <v>136000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>154000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>128200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>68000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>62000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>61000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>58000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>65000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>58900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>260000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>226000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>289000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>285600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>336000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>50000</v>
+        <v>429000</v>
       </c>
       <c r="E58" s="3">
         <v>50000</v>
       </c>
       <c r="F58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G58" s="3">
         <v>46500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>105000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>45600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>79000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>86000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>448000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>225000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>322000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>501000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>482800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>364000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E59" s="3">
         <v>34000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>106000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>125000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>299500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>179000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>213000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>251000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>276300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>343000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E60" s="3">
         <v>220000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>232000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>227900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>149000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>128000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>164000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>105000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>138000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>113000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>114000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>89900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>105000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>234000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>253000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>806300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>664000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>761000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1041000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1044800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1043000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1094000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1042000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1001000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>871800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>714000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>688000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>555000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>576700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>586000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>582000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>575000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>563200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>585000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>564000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>584000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>588500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3344000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3170000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2892000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2829600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2941000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>156000</v>
+        <v>151000</v>
       </c>
       <c r="E62" s="3">
         <v>156000</v>
       </c>
       <c r="F62" s="3">
+        <v>156000</v>
+      </c>
+      <c r="G62" s="3">
         <v>106600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>124000</v>
       </c>
       <c r="H62" s="3">
         <v>124000</v>
       </c>
       <c r="I62" s="3">
+        <v>124000</v>
+      </c>
+      <c r="J62" s="3">
         <v>121000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>114900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>109000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>102000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>99000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>86200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>88000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>84000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>85000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>79600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>360000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>375000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>363000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>369200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>345000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2286000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1858000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1846000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1415500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1073000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1022000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>921000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>885000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>936000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>879000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>855000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>806100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>848000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>949000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>997000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1542700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4622000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4522000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4514000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4456600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4545000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>960000</v>
+      </c>
+      <c r="E72" s="3">
         <v>770000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>699000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>448500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>360000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>293000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>92000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>207000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>229000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>258000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-282500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-531000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-575000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-584000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-564500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-533000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1581000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1390000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1314000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1066800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>960000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>891000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>629000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>623400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>715000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>651000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>634000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>649000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>813000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>820000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>827000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>983100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>737000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>689000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>671000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>681200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>718000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E81" s="3">
         <v>172000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>180000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>145100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>279000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-61800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>545000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>236600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-23000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-20000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-411900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-48000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E83" s="3">
         <v>16000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7000</v>
       </c>
       <c r="I83" s="3">
         <v>7000</v>
       </c>
       <c r="J83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K83" s="3">
         <v>9100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>8000</v>
       </c>
       <c r="L83" s="3">
         <v>8000</v>
       </c>
       <c r="M83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N83" s="3">
         <v>7000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>178500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>48000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>172400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>48200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E89" s="3">
         <v>28000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>33000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>47000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>163400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-134000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>391900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40000</v>
-      </c>
-      <c r="T89" s="3">
-        <v>101000</v>
       </c>
       <c r="U89" s="3">
         <v>101000</v>
       </c>
       <c r="V89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="W89" s="3">
         <v>162300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>65600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-46000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-45000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-11000</v>
       </c>
       <c r="H91" s="3">
         <v>-11000</v>
       </c>
       <c r="I91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-28000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-227600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-290600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-98000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-327600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>211000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-89000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>50000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-197400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-115000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>217000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>584500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-62000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-114000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-399600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-36300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-129000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>254000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>162800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>44000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>36000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-109600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>31000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-108600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-50000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>97100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>90000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>174600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>119200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>17300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>413000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-145000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>169000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-146000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>34000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>286000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-35000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-63000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>72000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>30000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-144300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-154000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-962000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1090800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>132000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>38000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-57300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>149900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E8" s="3">
         <v>133000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>105000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>115000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>104500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>117000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>76000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>89000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>89500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>102000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>85000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>97000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>85000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>94000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>84000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>101000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>365700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>97000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>84000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>93000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>324300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>502000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E9" s="3">
         <v>95000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>93000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>92000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>90200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>93000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>66000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>65000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>69200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>77000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>72000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>68000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>69000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>71000</v>
       </c>
       <c r="R9" s="3">
         <v>71000</v>
       </c>
       <c r="S9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="T9" s="3">
         <v>297200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>76000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>75000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>72000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>278400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>399000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E10" s="3">
         <v>38000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>68500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>45900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>103000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,65 +1180,68 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-43500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-11000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-63000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-28800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>20000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>72300</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>72300</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>121200</v>
+      </c>
+      <c r="E17" s="3">
         <v>110000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>102000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>69000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>102000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>76000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>73000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>93300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>75000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>76000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>323400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>87000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>90000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>79000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>395200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>432000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E18" s="3">
         <v>23000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>35500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15000</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>22000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>86000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>42300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-70900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>70000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>383100</v>
+      </c>
+      <c r="E20" s="3">
         <v>139000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>172000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>163000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>95900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>50000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>278000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-30700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-52800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-36000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>472000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-177900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-26000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-20000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-42000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-356000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-94000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>411300</v>
+      </c>
+      <c r="E21" s="3">
         <v>176000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>161000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>189000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>142600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>74000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>285000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>32000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-53600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-21000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>566000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>42800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>18000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-254500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>24200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>396600</v>
+      </c>
+      <c r="E23" s="3">
         <v>162000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>145000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>176000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>131400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>65000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>278000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-61000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-28000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>558000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-135600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-16000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-26000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-28000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-426900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>72800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>374300</v>
+      </c>
+      <c r="E26" s="3">
         <v>170000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>154000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>178000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>134700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>62000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>278000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-61500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-29000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>552000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-208400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-20000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-26000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-32000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-429200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-43000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>392300</v>
+      </c>
+      <c r="E27" s="3">
         <v>186000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>172000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>180000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>144600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>59000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>279000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-60200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-29000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>545000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-240000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-20000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-38000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-42000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-447100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-48000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,79 +2178,85 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>8000</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>26000</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-1000</v>
       </c>
       <c r="N29" s="3">
         <v>-1000</v>
       </c>
       <c r="O29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>476600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>47000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>22000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>35200</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-383100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-139000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-172000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-163000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-95900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-50000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-278000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>30700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>52800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>36000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-472000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>177900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>26000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>20000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>42000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>356000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>94000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>392300</v>
+      </c>
+      <c r="E33" s="3">
         <v>186000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>172000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>180000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>145100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>279000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-61800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-29000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>545000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>236600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-23000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-20000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-411900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-48000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>392300</v>
+      </c>
+      <c r="E35" s="3">
         <v>186000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>172000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>180000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>145100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>279000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-61800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-29000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>545000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>236600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-23000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-20000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-411900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-48000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,221 +2833,231 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>474500</v>
+      </c>
+      <c r="E41" s="3">
         <v>723000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>310000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>455000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>286200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>432000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>398000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>111000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>147200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>210000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>138000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>161000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>131100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>275000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>429000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>455000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1417400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>498000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>366000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>328000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>326600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>451000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
         <v>39000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>564200</v>
-      </c>
-      <c r="H42" s="3">
-        <v>16000</v>
       </c>
       <c r="I42" s="3">
         <v>16000</v>
       </c>
       <c r="J42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K42" s="3">
         <v>22000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>33600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>78000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>51000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>49900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>28000</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>7100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>50000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>54000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>110000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>89500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>85000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E43" s="3">
         <v>55000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>99000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>33000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>31000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>39300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>43000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>35000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>44400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>383000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>280000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>289000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>296000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>271000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3015,326 +3110,341 @@
         <v>0</v>
       </c>
       <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>83000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>82000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>89000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>91700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>87000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E45" s="3">
         <v>48000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>220000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>131000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>109500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>147000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>116000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>111100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>35800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>40000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>102000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>53000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>49800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>62000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>581600</v>
+      </c>
+      <c r="E46" s="3">
         <v>865000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>644000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>550000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>919800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>501000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>464000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>293000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>329500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>463000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>364000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>345000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>327700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>367000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>478000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>510000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1504600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1054000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>884000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>869000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>853600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>956000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1899500</v>
+      </c>
+      <c r="E47" s="3">
         <v>1571000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1209000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1261000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>532400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>137000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>91000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>118000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>119700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>304000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>297000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>290000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>301200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>478000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>498000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>509000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>228400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>287000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>295000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>185000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>208200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>295000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1223700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1099000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1044000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1018000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>904600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>804000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>784000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>684000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>684800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>681000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>670000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>659000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>635100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>627000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>609000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>628000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>616200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3503000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3507000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3553000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3497300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3524000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>224300</v>
+      </c>
+      <c r="E49" s="3">
         <v>208000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>214000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>217000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1000</v>
       </c>
       <c r="I49" s="3">
         <v>1000</v>
@@ -3343,10 +3453,10 @@
         <v>1000</v>
       </c>
       <c r="K49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L49" s="3">
         <v>1200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1000</v>
       </c>
       <c r="M49" s="3">
         <v>1000</v>
@@ -3355,10 +3465,10 @@
         <v>1000</v>
       </c>
       <c r="O49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P49" s="3">
         <v>1300</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2000</v>
       </c>
       <c r="Q49" s="3">
         <v>2000</v>
@@ -3367,28 +3477,31 @@
         <v>2000</v>
       </c>
       <c r="S49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T49" s="3">
         <v>1600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>362000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>364000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>366000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>376800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>359000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>139600</v>
+      </c>
+      <c r="E52" s="3">
         <v>124000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>137000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>114000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>124100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>590000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>573000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>454000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>373100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>202000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>198000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>194000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>189800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>187000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>182000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>175000</v>
       </c>
       <c r="S52" s="3">
         <v>175000</v>
       </c>
       <c r="T52" s="3">
+        <v>175000</v>
+      </c>
+      <c r="U52" s="3">
         <v>153000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>161000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>212000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>201900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>129000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4068700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3867000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3248000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3160000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2482300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2033000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1913000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1550000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1508400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1651000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1530000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1489000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1455100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1661000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1769000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1824000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2525900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5359000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5211000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5185000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5137800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5263000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>171500</v>
+      </c>
+      <c r="E57" s="3">
         <v>138000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>136000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>154000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>128200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>68000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>62000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>61000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>58000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>65000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>49000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>58900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>260000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>226000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>289000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>285600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>336000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E58" s="3">
         <v>429000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>50000</v>
       </c>
       <c r="F58" s="3">
         <v>50000</v>
       </c>
       <c r="G58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H58" s="3">
         <v>46500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>48000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>105000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>45600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>40000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>36000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>79000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>86000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>448000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>225000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>322000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>501000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>482800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>364000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>237400</v>
+      </c>
+      <c r="E59" s="3">
         <v>45000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>106000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>125000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>299500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>179000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>213000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>251000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>276300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>343000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>447300</v>
+      </c>
+      <c r="E60" s="3">
         <v>612000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>220000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>232000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>227900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>149000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>128000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>164000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>105000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>138000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>113000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>114000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>89900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>105000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>234000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>253000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>806300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>664000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>761000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1041000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1044800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1043000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1171800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1094000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1042000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1001000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>871800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>714000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>688000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>555000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>576700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>586000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>582000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>575000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>563200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>585000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>564000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>584000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>588500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3344000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3170000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2892000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2829600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2941000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E62" s="3">
         <v>151000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>156000</v>
       </c>
       <c r="F62" s="3">
         <v>156000</v>
       </c>
       <c r="G62" s="3">
+        <v>156000</v>
+      </c>
+      <c r="H62" s="3">
         <v>106600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>124000</v>
       </c>
       <c r="I62" s="3">
         <v>124000</v>
       </c>
       <c r="J62" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K62" s="3">
         <v>121000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>114900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>109000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>102000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>99000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>86200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>88000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>84000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>85000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>79600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>360000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>375000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>363000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>369200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>345000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2275000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2286000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1858000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1846000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1415500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1073000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1022000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>921000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>885000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>936000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>879000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>855000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>806100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>848000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>949000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>997000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1542700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4622000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4522000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4514000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4456600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4545000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1165600</v>
+      </c>
+      <c r="E72" s="3">
         <v>960000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>770000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>699000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>448500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>360000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>293000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>92000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>207000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>229000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>258000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-282500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-531000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-575000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-584000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-564500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-533000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1793700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1581000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1390000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1314000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1066800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>960000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>891000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>629000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>623400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>715000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>651000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>634000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>649000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>813000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>820000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>827000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>983100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>737000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>689000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>671000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>681200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>718000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>392300</v>
+      </c>
+      <c r="E81" s="3">
         <v>186000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>172000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>180000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>145100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>279000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-61800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-29000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>545000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>236600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-23000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-20000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-411900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-48000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E83" s="3">
         <v>14000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7000</v>
       </c>
       <c r="J83" s="3">
         <v>7000</v>
       </c>
       <c r="K83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L83" s="3">
         <v>9100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>8000</v>
       </c>
       <c r="M83" s="3">
         <v>8000</v>
       </c>
       <c r="N83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O83" s="3">
         <v>7000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>178500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>44000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>48000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>172400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>48200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E89" s="3">
         <v>83000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>33000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>47000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>163400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-134000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>391900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>40000</v>
-      </c>
-      <c r="U89" s="3">
-        <v>101000</v>
       </c>
       <c r="V89" s="3">
         <v>101000</v>
       </c>
       <c r="W89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="X89" s="3">
         <v>162300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>65600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-60000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-45000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-11000</v>
       </c>
       <c r="I91" s="3">
         <v>-11000</v>
       </c>
       <c r="J91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-28000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-227600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-60000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-56000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-40000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-290600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E94" s="3">
         <v>6000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-52000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-98000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-327600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>211000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-89000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>50000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-197400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-115000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>217000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>584500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-62000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-114000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-399600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-36300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,13 +6484,14 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6270,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-114100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-304400</v>
+      </c>
+      <c r="E100" s="3">
         <v>326000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-129000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>254000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>162800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>44000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>36000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-109600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>31000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-108600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>97100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>90000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>174600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>119200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>9600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>17300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-248600</v>
+      </c>
+      <c r="E102" s="3">
         <v>413000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-145000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>169000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-146000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>286000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-35000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-63000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>72000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>30000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-144300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-154000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-26000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-962000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1090800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>132000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>38000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-57300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>149900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E8" s="3">
         <v>134800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>133000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>105000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>115000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>104500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>117000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>76000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>89000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>89500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>102000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>85000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>97000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>85000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>94000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>84000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>101000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>365700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>97000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>84000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>93000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>324300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>502000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E9" s="3">
         <v>110400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>95000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>93000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>92000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>90200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>93000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>66000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>65000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>69200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>72000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>68000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>69000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>71000</v>
       </c>
       <c r="S9" s="3">
         <v>71000</v>
       </c>
       <c r="T9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="U9" s="3">
         <v>297200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>76000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>75000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>72000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>278400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>399000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E10" s="3">
         <v>24400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>68500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>21000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>45900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>103000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1183,65 +1203,68 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-43500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-11000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-63000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-28800</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>20000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>72300</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>72300</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E17" s="3">
         <v>121200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>110000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>102000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>69000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>102000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>76000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>74400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>79000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>93300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>75000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>76000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>323400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>87000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>90000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>79000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>395200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>432000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E18" s="3">
         <v>13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>35500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15000</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>22000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>86000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>42300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-70900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>70000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>659000</v>
+      </c>
+      <c r="E20" s="3">
         <v>383100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>139000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>172000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>163000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>95900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>50000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>278000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-30700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-26000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-36000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>472000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-177900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-26000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-20000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-42000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-356000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-94000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>687000</v>
+      </c>
+      <c r="E21" s="3">
         <v>411300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>176000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>161000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>189000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>142600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>74000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>285000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>32000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-53600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-21000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>566000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>42800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>27000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>18000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>20000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-254500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>24200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E23" s="3">
         <v>396600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>162000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>145000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>176000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>131400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>65000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>278000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-28000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>558000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-135600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-16000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-26000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-28000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-426900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>22300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-9000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>72800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>19000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E26" s="3">
         <v>374300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>170000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>154000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>178000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>134700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>62000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>278000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-29000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>552000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-208400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-20000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-26000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-32000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-429200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-43000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E27" s="3">
         <v>392300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>186000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>172000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>180000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>144600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>59000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>279000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-60200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-29000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>545000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-240000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-20000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-38000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-42000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-447100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-48000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,82 +2239,88 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>8000</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>26000</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-1000</v>
       </c>
       <c r="O29" s="3">
         <v>-1000</v>
       </c>
       <c r="P29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>476600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>47000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>22000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>35200</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-659000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-383100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-139000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-172000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-163000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-95900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-50000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-278000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>30700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>52800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>26000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>36000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-472000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>177900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>26000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>20000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>42000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>356000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>94000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E33" s="3">
         <v>392300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>186000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>172000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>180000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>145100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>67000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>279000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-61800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-29000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>545000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>236600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-23000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-411900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-48000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E35" s="3">
         <v>392300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>186000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>172000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>180000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>145100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>67000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>279000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-61800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-29000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>545000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>236600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-23000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-411900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-48000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,230 +2920,240 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>714000</v>
+      </c>
+      <c r="E41" s="3">
         <v>474500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>723000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>310000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>455000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>286200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>432000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>398000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>147200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>210000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>138000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>161000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>131100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>275000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>429000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>455000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1417400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>498000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>366000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>328000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>326600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>451000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>564200</v>
-      </c>
-      <c r="I42" s="3">
-        <v>16000</v>
       </c>
       <c r="J42" s="3">
         <v>16000</v>
       </c>
       <c r="K42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="L42" s="3">
         <v>22000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>33600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>78000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>51000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>49900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>28000</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>7100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>50000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>54000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>110000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>89500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>85000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E43" s="3">
         <v>62600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>99000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>29000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>39300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>43000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>31000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>35000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>44400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>383000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>280000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>289000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>296000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>271000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3113,341 +3209,356 @@
         <v>0</v>
       </c>
       <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
         <v>83000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>82000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>89000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>91700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>87000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E45" s="3">
         <v>44200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>48000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>220000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>131000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>109500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>147000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>116000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>111100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>35800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>40000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>102000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>53000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>49800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>62000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="E46" s="3">
         <v>581600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>865000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>644000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>550000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>919800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>501000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>464000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>293000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>329500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>463000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>364000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>345000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>327700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>367000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>478000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>510000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1504600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1054000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>884000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>869000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>853600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>956000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1611000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1899500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1571000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1209000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1261000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>532400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>137000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>91000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>118000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>119700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>304000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>297000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>290000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>301200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>478000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>498000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>509000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>228400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>287000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>295000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>185000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>208200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>295000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1257000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1223700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1099000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1044000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1018000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>904600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>804000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>784000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>684000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>684800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>681000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>670000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>659000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>635100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>627000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>609000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>628000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>616200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3503000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3507000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3553000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3497300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3524000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E49" s="3">
         <v>224300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>208000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>214000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>217000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1000</v>
       </c>
       <c r="J49" s="3">
         <v>1000</v>
@@ -3456,10 +3567,10 @@
         <v>1000</v>
       </c>
       <c r="L49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M49" s="3">
         <v>1200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1000</v>
       </c>
       <c r="N49" s="3">
         <v>1000</v>
@@ -3468,10 +3579,10 @@
         <v>1000</v>
       </c>
       <c r="P49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2000</v>
       </c>
       <c r="R49" s="3">
         <v>2000</v>
@@ -3480,28 +3591,31 @@
         <v>2000</v>
       </c>
       <c r="T49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U49" s="3">
         <v>1600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>362000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>364000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>366000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>376800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>359000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E52" s="3">
         <v>139600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>124000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>137000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>114000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>124100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>590000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>573000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>454000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>373100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>202000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>198000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>194000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>189800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>187000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>182000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>175000</v>
       </c>
       <c r="T52" s="3">
         <v>175000</v>
       </c>
       <c r="U52" s="3">
+        <v>175000</v>
+      </c>
+      <c r="V52" s="3">
         <v>153000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>161000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>212000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>201900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>129000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4520000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4068700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3867000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3248000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3160000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2482300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2033000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1913000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1550000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1508400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1651000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1530000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1489000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1455100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1661000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1769000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1824000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2525900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5359000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5211000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5185000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5137800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5263000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E57" s="3">
         <v>171500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>138000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>136000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>154000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>128200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>68000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>61000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>58000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>47700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>65000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>42000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>58900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>260000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>226000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>289000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>285600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>336000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E58" s="3">
         <v>38300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>429000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>50000</v>
       </c>
       <c r="G58" s="3">
         <v>50000</v>
       </c>
       <c r="H58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I58" s="3">
         <v>46500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>48000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>105000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>45600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>40000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>36000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>28000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>79000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>86000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>448000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>225000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>322000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>501000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>482800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>364000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E59" s="3">
         <v>237400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>106000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>125000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>299500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>179000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>213000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>251000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>276300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>343000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E60" s="3">
         <v>447300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>612000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>220000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>232000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>227900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>149000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>128000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>164000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>105000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>138000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>113000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>114000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>89900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>105000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>234000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>253000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>806300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>664000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>761000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1041000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1044800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1043000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1192000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1171800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1094000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1042000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1001000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>871800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>714000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>688000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>555000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>576700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>586000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>582000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>575000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>563200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>585000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>564000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>584000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>588500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3344000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3170000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2892000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2829600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2941000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E62" s="3">
         <v>169300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>151000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>156000</v>
       </c>
       <c r="G62" s="3">
         <v>156000</v>
       </c>
       <c r="H62" s="3">
+        <v>156000</v>
+      </c>
+      <c r="I62" s="3">
         <v>106600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>124000</v>
       </c>
       <c r="J62" s="3">
         <v>124000</v>
       </c>
       <c r="K62" s="3">
+        <v>124000</v>
+      </c>
+      <c r="L62" s="3">
         <v>121000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>114900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>109000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>102000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>99000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>86200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>88000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>84000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>85000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>79600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>360000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>375000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>363000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>369200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>345000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2084000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2275000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2286000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1858000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1846000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1415500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1073000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1022000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>921000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>885000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>936000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>879000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>855000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>806100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>848000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>949000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>997000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1542700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4622000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4522000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4514000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4456600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4545000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1814000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1165600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>960000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>770000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>699000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>448500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>360000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>293000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>92000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>207000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>229000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>258000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-282500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-531000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-575000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-584000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-564500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-533000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2436000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1793700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1581000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1390000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1314000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1066800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>960000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>891000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>629000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>623400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>715000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>651000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>634000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>649000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>813000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>820000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>827000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>983100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>737000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>689000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>671000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>681200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>718000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E81" s="3">
         <v>392300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>186000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>172000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>180000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>145100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>67000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>279000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-61800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-29000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>545000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>236600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-23000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-411900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-48000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E83" s="3">
         <v>14600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7000</v>
       </c>
       <c r="K83" s="3">
         <v>7000</v>
       </c>
       <c r="L83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M83" s="3">
         <v>9100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>8000</v>
       </c>
       <c r="N83" s="3">
         <v>8000</v>
       </c>
       <c r="O83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="P83" s="3">
         <v>7000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>178500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>44000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>48000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>172400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>48200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E89" s="3">
         <v>107500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>83000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>47000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>163400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-134000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>391900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>40000</v>
-      </c>
-      <c r="V89" s="3">
-        <v>101000</v>
       </c>
       <c r="W89" s="3">
         <v>101000</v>
       </c>
       <c r="X89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="Y89" s="3">
         <v>162300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>65600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-80200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-60000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-11000</v>
       </c>
       <c r="J91" s="3">
         <v>-11000</v>
       </c>
       <c r="K91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-28000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-227600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-60000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-56000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-40000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-290600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-61500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-52000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-98000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-327600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>211000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-89000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>50000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-197400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-115000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>217000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>584500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-62000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-114000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-399600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-36300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,17 +6718,18 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-189000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-200</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -6503,11 +6737,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-114100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-304400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>326000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-129000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>254000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>162800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>44000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-109600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>31000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-108600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-50000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>97100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>90000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>174600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>119200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>9700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>9600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>17300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-248600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>413000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-145000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>169000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-146000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>286000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-35000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-63000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>72000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>30000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-144300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-154000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-26000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-962000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1090800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>132000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>38000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-57300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>149900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E8" s="3">
         <v>146000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>134800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>133000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>105000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>115000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>104500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>117000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>89000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>89500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>102000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>85000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>97000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>85000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>94000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>84000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>101000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>365700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>97000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>84000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>93000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>324300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>502000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E9" s="3">
         <v>110000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>110400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>95000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>93000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>92000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>90200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>93000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>66000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>65000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>77000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>72000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>68000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>78300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>69000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>71000</v>
       </c>
       <c r="T9" s="3">
         <v>71000</v>
       </c>
       <c r="U9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="V9" s="3">
         <v>297200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>76000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>75000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>72000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>278400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>399000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
         <v>36000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>30000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>68500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>9000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>21000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>45900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>103000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1206,65 +1226,68 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-43500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-11000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-63000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-28800</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>20000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>72300</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>72300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E17" s="3">
         <v>132000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>110000</v>
       </c>
-      <c r="G17" s="3">
-        <v>132000</v>
-      </c>
       <c r="H17" s="3">
+        <v>120000</v>
+      </c>
+      <c r="I17" s="3">
         <v>102000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>69000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>102000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>74400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>73000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>79000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>78000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>93300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>75000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>76000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>323400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>87000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>90000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>79000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>395200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>432000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E18" s="3">
         <v>14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-27000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I18" s="3">
         <v>13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>35500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15000</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>22000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>86000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>42300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-6000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-70900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>70000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E20" s="3">
         <v>659000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>383100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>139000</v>
       </c>
-      <c r="G20" s="3">
-        <v>172000</v>
-      </c>
       <c r="H20" s="3">
+        <v>160000</v>
+      </c>
+      <c r="I20" s="3">
         <v>163000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>95900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>50000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>278000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-30700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-52800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-36000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>472000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-177900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-26000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-356000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-94000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E21" s="3">
         <v>687000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>411300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>176000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>161000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>189000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>142600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>74000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>285000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>32000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-53600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-21000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>566000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>42800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>27000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>18000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>20000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-254500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>24200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E23" s="3">
         <v>673000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>396600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>162000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>145000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>176000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>131400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>65000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>278000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>25000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-61000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-28000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>558000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-135600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-16000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-26000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-426900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-24000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-9000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>72800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>4000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>19000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E26" s="3">
         <v>657000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>374300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>170000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>154000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>178000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>134700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>62000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>278000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-61500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-29000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>552000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-208400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-26000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-429200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-43000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E27" s="3">
         <v>639000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>392300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>186000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>172000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>180000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>144600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>59000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>279000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-60200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-29000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>545000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-240000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-38000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-447100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-48000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,85 +2300,91 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>8000</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>26000</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-1000</v>
       </c>
       <c r="P29" s="3">
         <v>-1000</v>
       </c>
       <c r="Q29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>476600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>47000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>22000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>35200</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-274000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-659000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-383100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-139000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-172000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-163000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-95900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-50000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-278000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>30700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>52800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>36000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-472000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>177900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>26000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>42000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>356000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>94000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E33" s="3">
         <v>639000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>392300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>186000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>172000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>180000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>145100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>67000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>279000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-61800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-29000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>545000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>236600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-23000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-411900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-48000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E35" s="3">
         <v>639000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>392300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>186000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>172000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>180000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>145100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>67000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>279000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-61800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-29000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>545000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>236600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-23000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-411900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-48000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,239 +3007,249 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>837000</v>
+      </c>
+      <c r="E41" s="3">
         <v>714000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>474500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>723000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>310000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>455000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>286200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>432000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>398000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>111000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>147200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>210000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>138000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>161000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>131100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>275000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>429000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>455000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1417400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>498000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>366000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>328000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>326600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>451000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>39000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>22000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>564200</v>
-      </c>
-      <c r="J42" s="3">
-        <v>16000</v>
       </c>
       <c r="K42" s="3">
         <v>16000</v>
       </c>
       <c r="L42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="M42" s="3">
         <v>22000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>33600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>72000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>78000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>51000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>49900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>28000</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>7100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>50000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>54000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>110000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>89500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>85000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E43" s="3">
         <v>530000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>62600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>99000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>39300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>43000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>31000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>35000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>44400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>383000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>280000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>289000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>296000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>271000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,356 +3308,371 @@
         <v>0</v>
       </c>
       <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
         <v>83000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>82000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>89000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>91700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>87000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E45" s="3">
         <v>43000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>48000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>220000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>131000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>109500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>147000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>116000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>111100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>35800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>40000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>102000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>53000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>49800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>62000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1291000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>581600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>865000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>644000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>550000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>919800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>501000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>464000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>293000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>329500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>463000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>364000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>345000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>327700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>367000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>478000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>510000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1504600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1054000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>884000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>869000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>853600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>956000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1807000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1611000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1899500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1571000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1209000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1261000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>532400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>137000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>91000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>118000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>119700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>304000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>297000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>290000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>301200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>478000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>498000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>509000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>228400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>287000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>295000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>185000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>208200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>295000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1215000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1257000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1223700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1099000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1044000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1018000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>904600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>804000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>784000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>684000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>684800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>681000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>670000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>659000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>635100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>627000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>609000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>628000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>616200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3503000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3507000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3553000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3497300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3524000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E49" s="3">
         <v>223000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>224300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>208000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>214000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>217000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1000</v>
       </c>
       <c r="K49" s="3">
         <v>1000</v>
@@ -3570,10 +3681,10 @@
         <v>1000</v>
       </c>
       <c r="M49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N49" s="3">
         <v>1200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1000</v>
       </c>
       <c r="O49" s="3">
         <v>1000</v>
@@ -3582,10 +3693,10 @@
         <v>1000</v>
       </c>
       <c r="Q49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R49" s="3">
         <v>1300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>2000</v>
       </c>
       <c r="S49" s="3">
         <v>2000</v>
@@ -3594,28 +3705,31 @@
         <v>2000</v>
       </c>
       <c r="U49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V49" s="3">
         <v>1600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>362000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>364000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>366000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>376800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>359000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E52" s="3">
         <v>138000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>139600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>124000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>137000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>114000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>124100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>590000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>573000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>454000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>373100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>202000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>198000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>194000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>189800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>187000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>182000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>175000</v>
       </c>
       <c r="U52" s="3">
         <v>175000</v>
       </c>
       <c r="V52" s="3">
+        <v>175000</v>
+      </c>
+      <c r="W52" s="3">
         <v>153000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>161000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>212000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>201900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>129000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4666000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4520000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4068700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3867000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3248000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3160000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2482300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2033000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1913000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1550000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1508400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1651000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1530000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1489000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1455100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1661000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1769000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1824000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2525900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5359000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5211000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5185000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5137800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5263000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E57" s="3">
         <v>126000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>171500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>138000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>136000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>154000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>128200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>68000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>54000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>62000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>61000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>65000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>58900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>260000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>226000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>289000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>285600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>336000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E58" s="3">
         <v>41000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>38300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>429000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>50000</v>
       </c>
       <c r="H58" s="3">
         <v>50000</v>
       </c>
       <c r="I58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J58" s="3">
         <v>46500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>105000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>45600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>40000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>36000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>28000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>79000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>86000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>448000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>225000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>322000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>501000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>482800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>364000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E59" s="3">
         <v>26000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>237400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>106000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>125000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>299500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>179000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>213000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>251000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>276300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>343000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E60" s="3">
         <v>193000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>447300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>612000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>220000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>232000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>227900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>149000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>128000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>164000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>105000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>138000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>113000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>114000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>89900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>105000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>234000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>253000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>806300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>664000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>761000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1041000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1044800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1043000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1192000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1171800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1094000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1042000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1001000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>871800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>714000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>688000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>555000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>576700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>586000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>582000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>575000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>563200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>585000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>564000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>584000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>588500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3344000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3170000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2892000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2829600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2941000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E62" s="3">
         <v>174000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>169300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>151000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>156000</v>
       </c>
       <c r="H62" s="3">
         <v>156000</v>
       </c>
       <c r="I62" s="3">
+        <v>156000</v>
+      </c>
+      <c r="J62" s="3">
         <v>106600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>124000</v>
       </c>
       <c r="K62" s="3">
         <v>124000</v>
       </c>
       <c r="L62" s="3">
+        <v>124000</v>
+      </c>
+      <c r="M62" s="3">
         <v>121000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>114900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>109000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>102000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>99000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>86200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>88000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>84000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>85000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>79600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>360000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>375000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>363000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>369200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>345000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2534000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2084000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2275000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2286000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1858000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1846000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1415500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1073000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1022000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>921000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>885000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>936000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>879000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>855000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>806100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>848000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>949000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>997000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1542700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4622000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4522000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4514000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4456600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4545000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2079000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1814000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1165600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>960000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>770000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>699000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>448500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>360000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>293000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>92000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>207000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>229000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>258000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-282500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-531000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-575000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-584000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-564500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-533000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2132000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2436000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1793700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1581000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1390000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1314000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1066800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>960000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>891000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>629000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>623400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>715000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>651000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>634000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>649000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>813000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>820000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>827000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>983100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>737000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>689000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>671000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>681200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>718000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E81" s="3">
         <v>639000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>392300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>186000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>172000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>180000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>145100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>67000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>279000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-61800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-29000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>545000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>236600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-23000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-411900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-48000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E83" s="3">
         <v>14000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7000</v>
       </c>
       <c r="L83" s="3">
         <v>7000</v>
       </c>
       <c r="M83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N83" s="3">
         <v>9100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>8000</v>
       </c>
       <c r="O83" s="3">
         <v>8000</v>
       </c>
       <c r="P83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>178500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>43000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>44000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>48000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>172400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>48200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E89" s="3">
         <v>18000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>107500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>83000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>47000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>163400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-134000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>391900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>40000</v>
-      </c>
-      <c r="W89" s="3">
-        <v>101000</v>
       </c>
       <c r="X89" s="3">
         <v>101000</v>
       </c>
       <c r="Y89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="Z89" s="3">
         <v>162300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>65600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-85000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-80200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-60000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-11000</v>
       </c>
       <c r="K91" s="3">
         <v>-11000</v>
       </c>
       <c r="L91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-28000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-227600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-60000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-56000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-290600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-430000</v>
+      </c>
+      <c r="E94" s="3">
         <v>377000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-52000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-98000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-327600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>211000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-89000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>50000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-197400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-115000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>217000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>584500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-62000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-114000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-399600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-36300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,20 +6952,21 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-189000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-200</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -6740,11 +6974,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-114100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-150000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-304400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>326000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-129000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>254000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>162800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>44000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>36000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-109600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>31000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>13000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-108600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-50000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>97100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>90000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>174600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>119200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>9600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>17300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E102" s="3">
         <v>239000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-248600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>413000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-145000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>169000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-146000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>286000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-35000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-63000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>72000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-144300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-154000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-26000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-962000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1090800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>132000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>38000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-57300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>149900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E8" s="3">
         <v>121000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>146000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>134800</v>
       </c>
-      <c r="G8" s="3">
-        <v>133000</v>
-      </c>
       <c r="H8" s="3">
+        <v>353000</v>
+      </c>
+      <c r="I8" s="3">
         <v>105000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>115000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>104500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>117000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>89000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>89500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>102000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>85000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>97000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>85000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>94000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>84000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>101000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>365700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>97000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>84000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>93000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>324300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>502000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E9" s="3">
         <v>113000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>110000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>110400</v>
       </c>
-      <c r="G9" s="3">
-        <v>95000</v>
-      </c>
       <c r="H9" s="3">
+        <v>279000</v>
+      </c>
+      <c r="I9" s="3">
         <v>93000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>92000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>90200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>93000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>66000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>65000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>77000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>72000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>68000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>78300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>69000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>71000</v>
       </c>
       <c r="U9" s="3">
         <v>71000</v>
       </c>
       <c r="V9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="W9" s="3">
         <v>297200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>76000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>75000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>72000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>278400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>399000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24400</v>
       </c>
-      <c r="G10" s="3">
-        <v>38000</v>
-      </c>
       <c r="H10" s="3">
+        <v>74000</v>
+      </c>
+      <c r="I10" s="3">
         <v>12000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>30000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>68500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>21000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>9000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>21000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>45900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>103000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1229,65 +1249,68 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-43500</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-11000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-63000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-28800</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>20000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>72300</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>72300</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E17" s="3">
         <v>136000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121200</v>
       </c>
-      <c r="G17" s="3">
-        <v>110000</v>
-      </c>
       <c r="H17" s="3">
+        <v>332000</v>
+      </c>
+      <c r="I17" s="3">
         <v>120000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>102000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>69000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>102000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>76000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>74400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>73000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>79000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>78000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>93300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>75000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>76000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>323400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>87000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>90000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>79000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>395200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>432000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13600</v>
       </c>
-      <c r="G18" s="3">
-        <v>23000</v>
-      </c>
       <c r="H18" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-15000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15000</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>22000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>86000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>42300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-70900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>70000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1616,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E20" s="3">
         <v>274000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>659000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>383100</v>
       </c>
-      <c r="G20" s="3">
-        <v>139000</v>
-      </c>
       <c r="H20" s="3">
+        <v>462000</v>
+      </c>
+      <c r="I20" s="3">
         <v>160000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>163000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>95900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>50000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>278000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-30700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-52800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-36000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>472000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-177900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-26000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-356000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-94000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E21" s="3">
         <v>274000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>687000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>411300</v>
       </c>
-      <c r="G21" s="3">
-        <v>176000</v>
-      </c>
       <c r="H21" s="3">
+        <v>526000</v>
+      </c>
+      <c r="I21" s="3">
         <v>161000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>189000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>142600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>74000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>285000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-53600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-21000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>566000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>42800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>27000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>18000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>20000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-254500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>24200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E23" s="3">
         <v>259000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>673000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>396600</v>
       </c>
-      <c r="G23" s="3">
-        <v>162000</v>
-      </c>
       <c r="H23" s="3">
+        <v>483000</v>
+      </c>
+      <c r="I23" s="3">
         <v>145000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>176000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>131400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>65000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>278000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-61000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-28000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>558000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-135600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-16000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-426900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22300</v>
       </c>
-      <c r="G24" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>72800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>4000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>19000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E26" s="3">
         <v>257000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>657000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>374300</v>
       </c>
-      <c r="G26" s="3">
-        <v>170000</v>
-      </c>
       <c r="H26" s="3">
+        <v>501000</v>
+      </c>
+      <c r="I26" s="3">
         <v>154000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>178000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>134700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>278000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-61500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-29000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>552000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-208400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-429200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-43000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E27" s="3">
         <v>265000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>639000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>392300</v>
       </c>
-      <c r="G27" s="3">
-        <v>186000</v>
-      </c>
       <c r="H27" s="3">
+        <v>538000</v>
+      </c>
+      <c r="I27" s="3">
         <v>172000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>180000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>144600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>279000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-60200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-29000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>545000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-240000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-447100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-48000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2314,77 +2375,80 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>8000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>26000</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q29" s="3">
         <v>-1000</v>
       </c>
       <c r="R29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>476600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-3000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>47000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>22000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>35200</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-274000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-659000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-383100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-139000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-462000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-160000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-163000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-95900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-50000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-278000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>30700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>52800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>36000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-472000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>177900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>26000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>20000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>42000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>356000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>94000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E33" s="3">
         <v>265000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>639000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>392300</v>
       </c>
-      <c r="G33" s="3">
-        <v>186000</v>
-      </c>
       <c r="H33" s="3">
+        <v>538000</v>
+      </c>
+      <c r="I33" s="3">
         <v>172000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>180000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>145100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>279000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-61800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-29000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>545000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>236600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-23000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-411900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-48000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E35" s="3">
         <v>265000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>639000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>392300</v>
       </c>
-      <c r="G35" s="3">
-        <v>186000</v>
-      </c>
       <c r="H35" s="3">
+        <v>538000</v>
+      </c>
+      <c r="I35" s="3">
         <v>172000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>180000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>145100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>279000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-61800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-29000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>545000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>236600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-23000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-411900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-48000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,248 +3094,258 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E41" s="3">
         <v>837000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>714000</v>
       </c>
-      <c r="F41" s="3">
-        <v>474500</v>
-      </c>
       <c r="G41" s="3">
+        <v>475000</v>
+      </c>
+      <c r="H41" s="3">
         <v>723000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>310000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>455000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>286200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>432000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>398000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>111000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>147200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>210000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>138000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>161000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>131100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>275000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>429000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>455000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1417400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>498000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>366000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>328000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>326600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>451000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="3">
         <v>11000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4000</v>
       </c>
-      <c r="F42" s="3">
-        <v>200</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>39000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>15000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>564200</v>
-      </c>
-      <c r="K42" s="3">
-        <v>16000</v>
       </c>
       <c r="L42" s="3">
         <v>16000</v>
       </c>
       <c r="M42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="N42" s="3">
         <v>22000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>33600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>72000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>78000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>51000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>49900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>28000</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>7100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>50000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>54000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>110000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>89500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>85000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E43" s="3">
         <v>48000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>530000</v>
       </c>
-      <c r="F43" s="3">
-        <v>62600</v>
-      </c>
       <c r="G43" s="3">
+        <v>63000</v>
+      </c>
+      <c r="H43" s="3">
         <v>55000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>99000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>39300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>33000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>35500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>43000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>31000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>35000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>44400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>383000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>280000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>289000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>296000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>271000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3311,371 +3407,386 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
         <v>83000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>82000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>89000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>91700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>87000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E45" s="3">
         <v>403000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43000</v>
       </c>
-      <c r="F45" s="3">
-        <v>44200</v>
-      </c>
       <c r="G45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="H45" s="3">
         <v>48000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>220000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>131000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>109500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>147000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>116000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>111100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>35800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>40000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>102000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>53000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>49800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>62000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1299000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1291000</v>
       </c>
-      <c r="F46" s="3">
-        <v>581600</v>
-      </c>
       <c r="G46" s="3">
+        <v>582000</v>
+      </c>
+      <c r="H46" s="3">
         <v>865000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>644000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>550000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>919800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>501000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>464000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>293000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>329500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>463000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>364000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>345000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>327700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>367000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>478000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>510000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1504600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1054000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>884000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>869000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>853600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>956000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1966000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1807000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1611000</v>
       </c>
-      <c r="F47" s="3">
-        <v>1899500</v>
-      </c>
       <c r="G47" s="3">
+        <v>1899000</v>
+      </c>
+      <c r="H47" s="3">
         <v>1571000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1209000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1261000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>532400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>137000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>91000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>118000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>119700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>304000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>297000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>290000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>301200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>478000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>498000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>509000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>228400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>287000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>295000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>185000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>208200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>295000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1243000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1215000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1257000</v>
       </c>
-      <c r="F48" s="3">
-        <v>1223700</v>
-      </c>
       <c r="G48" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="H48" s="3">
         <v>1099000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1044000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1018000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>904600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>804000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>784000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>684000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>684800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>681000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>670000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>659000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>635100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>627000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>609000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>628000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>616200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3503000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3507000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3553000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3497300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3524000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E49" s="3">
         <v>219000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>223000</v>
       </c>
-      <c r="F49" s="3">
-        <v>224300</v>
-      </c>
       <c r="G49" s="3">
+        <v>225000</v>
+      </c>
+      <c r="H49" s="3">
         <v>208000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>214000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>217000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1000</v>
       </c>
       <c r="L49" s="3">
         <v>1000</v>
@@ -3684,10 +3795,10 @@
         <v>1000</v>
       </c>
       <c r="N49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O49" s="3">
         <v>1200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1000</v>
       </c>
       <c r="P49" s="3">
         <v>1000</v>
@@ -3696,10 +3807,10 @@
         <v>1000</v>
       </c>
       <c r="R49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S49" s="3">
         <v>1300</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2000</v>
       </c>
       <c r="T49" s="3">
         <v>2000</v>
@@ -3708,28 +3819,31 @@
         <v>2000</v>
       </c>
       <c r="V49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W49" s="3">
         <v>1600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>362000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>364000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>366000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>376800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>359000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E52" s="3">
         <v>126000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>138000</v>
       </c>
-      <c r="F52" s="3">
-        <v>139600</v>
-      </c>
       <c r="G52" s="3">
+        <v>109000</v>
+      </c>
+      <c r="H52" s="3">
         <v>124000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>137000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>114000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>124100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>590000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>573000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>454000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>373100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>202000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>198000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>194000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>189800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>187000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>182000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>175000</v>
       </c>
       <c r="V52" s="3">
         <v>175000</v>
       </c>
       <c r="W52" s="3">
+        <v>175000</v>
+      </c>
+      <c r="X52" s="3">
         <v>153000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>161000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>212000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>201900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>129000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4561000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4666000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4520000</v>
       </c>
-      <c r="F54" s="3">
-        <v>4068700</v>
-      </c>
       <c r="G54" s="3">
+        <v>4039000</v>
+      </c>
+      <c r="H54" s="3">
         <v>3867000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3248000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3160000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2482300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2033000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1913000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1550000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1508400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1651000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1530000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1489000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1455100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1661000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1769000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1824000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2525900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5359000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5211000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5185000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5137800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5263000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4318,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E57" s="3">
         <v>108000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>126000</v>
       </c>
-      <c r="F57" s="3">
-        <v>171500</v>
-      </c>
       <c r="G57" s="3">
+        <v>342500</v>
+      </c>
+      <c r="H57" s="3">
         <v>138000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>136000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>154000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>128200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>68000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>54000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>62000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>61000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>58000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>65000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>49000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>42000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>58900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>260000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>226000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>289000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>285600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>336000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E58" s="3">
         <v>51000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41000</v>
       </c>
-      <c r="F58" s="3">
-        <v>38300</v>
-      </c>
       <c r="G58" s="3">
+        <v>38000</v>
+      </c>
+      <c r="H58" s="3">
         <v>429000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>50000</v>
       </c>
       <c r="I58" s="3">
         <v>50000</v>
       </c>
       <c r="J58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K58" s="3">
         <v>46500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>105000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>45600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>40000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>36000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>28000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>79000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>86000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>448000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>225000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>322000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>501000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>482800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>364000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E59" s="3">
         <v>574000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26000</v>
       </c>
-      <c r="F59" s="3">
-        <v>237400</v>
-      </c>
       <c r="G59" s="3">
+        <v>426600</v>
+      </c>
+      <c r="H59" s="3">
         <v>45000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>106000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>125000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>299500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>179000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>213000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>251000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>276300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>343000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E60" s="3">
         <v>733000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>193000</v>
       </c>
-      <c r="F60" s="3">
-        <v>447300</v>
-      </c>
       <c r="G60" s="3">
+        <v>447000</v>
+      </c>
+      <c r="H60" s="3">
         <v>612000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>220000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>232000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>227900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>149000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>128000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>164000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>105000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>138000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>113000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>114000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>89900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>105000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>234000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>253000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>806300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>664000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>761000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1041000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1044800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1043000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1101000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1117000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1192000</v>
       </c>
-      <c r="F61" s="3">
-        <v>1171800</v>
-      </c>
       <c r="G61" s="3">
+        <v>1172000</v>
+      </c>
+      <c r="H61" s="3">
         <v>1094000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1042000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1001000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>871800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>714000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>688000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>555000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>576700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>586000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>582000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>575000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>563200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>585000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>564000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>584000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>588500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3344000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3170000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2892000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2829600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2941000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E62" s="3">
         <v>177000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>174000</v>
       </c>
-      <c r="F62" s="3">
-        <v>169300</v>
-      </c>
       <c r="G62" s="3">
+        <v>168000</v>
+      </c>
+      <c r="H62" s="3">
         <v>151000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>156000</v>
       </c>
       <c r="I62" s="3">
         <v>156000</v>
       </c>
       <c r="J62" s="3">
+        <v>156000</v>
+      </c>
+      <c r="K62" s="3">
         <v>106600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>124000</v>
       </c>
       <c r="L62" s="3">
         <v>124000</v>
       </c>
       <c r="M62" s="3">
+        <v>124000</v>
+      </c>
+      <c r="N62" s="3">
         <v>121000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>114900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>109000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>102000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>99000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>86200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>88000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>84000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>85000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>79600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>360000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>375000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>363000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>369200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>345000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2128000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2534000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2084000</v>
       </c>
-      <c r="F66" s="3">
-        <v>2275000</v>
-      </c>
       <c r="G66" s="3">
+        <v>2245000</v>
+      </c>
+      <c r="H66" s="3">
         <v>2286000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1858000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1846000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1415500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1073000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1022000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>921000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>885000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>936000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>879000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>855000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>806100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>848000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>949000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>997000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1542700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4622000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4522000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4514000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4456600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4545000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2384000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2079000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1814000</v>
       </c>
-      <c r="F72" s="3">
-        <v>1165600</v>
-      </c>
       <c r="G72" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="H72" s="3">
         <v>960000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>770000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>699000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>448500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>360000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>293000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>92000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>207000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>229000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>258000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-282500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-531000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-575000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-584000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-564500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-533000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2433000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2132000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2436000</v>
       </c>
-      <c r="F76" s="3">
-        <v>1793700</v>
-      </c>
       <c r="G76" s="3">
+        <v>1794000</v>
+      </c>
+      <c r="H76" s="3">
         <v>1581000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1390000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1314000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1066800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>960000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>891000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>629000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>623400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>715000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>651000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>634000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>649000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>813000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>820000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>827000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>983100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>737000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>689000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>671000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>681200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>718000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E81" s="3">
         <v>265000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>639000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>392300</v>
       </c>
-      <c r="G81" s="3">
-        <v>186000</v>
-      </c>
       <c r="H81" s="3">
+        <v>538000</v>
+      </c>
+      <c r="I81" s="3">
         <v>172000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>180000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>145100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>279000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-61800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-29000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>545000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>236600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-23000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-411900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-48000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6022,79 +6221,82 @@
         <v>15000</v>
       </c>
       <c r="E83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F83" s="3">
         <v>14000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14600</v>
       </c>
-      <c r="G83" s="3">
-        <v>14000</v>
-      </c>
       <c r="H83" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I83" s="3">
         <v>16000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7000</v>
       </c>
       <c r="M83" s="3">
         <v>7000</v>
       </c>
       <c r="N83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O83" s="3">
         <v>9100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>8000</v>
       </c>
       <c r="P83" s="3">
         <v>8000</v>
       </c>
       <c r="Q83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R83" s="3">
         <v>7000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>178500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>43000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>44000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>48000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>172400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>48200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E89" s="3">
         <v>542000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>107500</v>
       </c>
-      <c r="G89" s="3">
-        <v>83000</v>
-      </c>
       <c r="H89" s="3">
+        <v>133000</v>
+      </c>
+      <c r="I89" s="3">
         <v>28000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>47000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>163400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-134000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>391900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>40000</v>
-      </c>
-      <c r="X89" s="3">
-        <v>101000</v>
       </c>
       <c r="Y89" s="3">
         <v>101000</v>
       </c>
       <c r="Z89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="AA89" s="3">
         <v>162300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>65600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-78000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-85000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-80200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-60000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-46000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-45000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-11000</v>
       </c>
       <c r="L91" s="3">
         <v>-11000</v>
       </c>
       <c r="M91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-28000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-227600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-60000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-290600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-32400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-430000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>377000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61500</v>
       </c>
-      <c r="G94" s="3">
-        <v>6000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-52000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-98000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-327600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>211000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-89000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>50000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-197400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-115000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>217000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>584500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-62000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-114000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-399600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-36300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,35 +7186,36 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-552000</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-189000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-200</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-100000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-114100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E100" s="3">
         <v>21000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-150000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-304400</v>
       </c>
-      <c r="G100" s="3">
-        <v>326000</v>
-      </c>
       <c r="H100" s="3">
+        <v>451000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-129000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>254000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>162800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>44000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>36000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-109600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>31000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>13000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-108600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-50000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>97100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>90000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>174600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>119200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>9600</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="S101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="V101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>17300</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AB101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>4000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>17300</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>11000</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>5400</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-287000</v>
+      </c>
+      <c r="E102" s="3">
         <v>123000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>239000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-248600</v>
       </c>
-      <c r="G102" s="3">
-        <v>413000</v>
-      </c>
       <c r="H102" s="3">
+        <v>437000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-145000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>169000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-146000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>286000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-35000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-63000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>72000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-144300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-154000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-26000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-962000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1090800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>132000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>38000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-57300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>149900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,384 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E8" s="3">
         <v>163000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>121000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>146000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>134800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>353000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>105000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>115000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>104500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>117000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>76000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>89000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>89500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>102000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>85000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>97000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>85000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>94000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>84000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>101000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>365700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>97000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>84000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>93000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>324300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>502000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E9" s="3">
         <v>130000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>113000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>110000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>110400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>279000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>93000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>92000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>90200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>93000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>66000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>65000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>69200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>77000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>72000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>68000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>78300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>69000</v>
-      </c>
-      <c r="U9" s="3">
-        <v>71000</v>
       </c>
       <c r="V9" s="3">
         <v>71000</v>
       </c>
       <c r="W9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="X9" s="3">
         <v>297200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>76000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>75000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>72000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>278400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>399000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E10" s="3">
         <v>33000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>74000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>29000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>30000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>68500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>21000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>9000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>21000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>45900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>103000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1252,65 +1271,68 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-43500</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-6000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-63000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-28800</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>20000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>72300</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>72300</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E17" s="3">
         <v>149000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>136000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>121200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>332000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>120000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>102000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>102000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>74400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>73000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>79000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>78000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>93300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>75000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>76000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>323400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>87000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>90000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>79000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>395200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>432000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E18" s="3">
         <v>14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15000</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>22000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>86000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>42300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-70900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>70000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-820200</v>
+      </c>
+      <c r="E20" s="3">
         <v>273000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>274000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>659000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>383100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>462000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>160000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>163000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>95900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>50000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>278000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-30700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-52800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-26000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-36000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>472000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-177900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-356000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-94000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-812500</v>
+      </c>
+      <c r="E21" s="3">
         <v>302000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>274000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>687000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>411300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>526000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>161000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>189000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>142600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>74000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>285000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-53600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-21000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>566000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>42800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>27000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>18000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>20000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-254500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>24200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-831400</v>
+      </c>
+      <c r="E23" s="3">
         <v>287000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>259000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>673000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>396600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>483000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>145000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>176000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>131400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>65000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>278000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-61000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-28000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>558000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-135600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-28000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-426900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-24000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-18000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>72800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4000</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>4000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>19000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-835300</v>
+      </c>
+      <c r="E26" s="3">
         <v>271000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>257000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>657000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>374300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>501000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>154000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>178000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>134700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>62000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>278000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-61500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-29000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>552000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-208400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-32000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-429200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-43000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-842300</v>
+      </c>
+      <c r="E27" s="3">
         <v>251000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>265000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>639000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>392300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>538000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>172000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>180000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>144600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>59000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>279000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-60200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-29000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>545000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-240000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-447100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-48000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,13 +2421,16 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2378,77 +2438,80 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>8000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>26000</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-1000</v>
       </c>
       <c r="R29" s="3">
         <v>-1000</v>
       </c>
       <c r="S29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-4000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>476600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>47000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>22000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>35200</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>820200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-273000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-274000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-659000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-383100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-462000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-160000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-163000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-95900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-50000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-278000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>30700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>52800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>26000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>36000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-472000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>177900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>26000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>20000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>42000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>356000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>94000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-842300</v>
+      </c>
+      <c r="E33" s="3">
         <v>251000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>265000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>639000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>392300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>538000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>172000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>180000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>145100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>279000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-61800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-29000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>545000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>236600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>9000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-411900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-48000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-842300</v>
+      </c>
+      <c r="E35" s="3">
         <v>251000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>265000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>639000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>392300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>538000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>172000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>180000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>145100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>279000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-61800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-29000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>545000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>236600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>9000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-411900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-48000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,257 +3180,267 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>535200</v>
+      </c>
+      <c r="E41" s="3">
         <v>550000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>837000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>714000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>475000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>723000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>310000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>455000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>286200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>432000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>398000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>111000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>147200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>210000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>138000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>161000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>131100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>275000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>429000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>455000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1417400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>498000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>366000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>328000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>326600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>451000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E42" s="3">
         <v>10000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4000</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>39000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>564200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>16000</v>
       </c>
       <c r="M42" s="3">
         <v>16000</v>
       </c>
       <c r="N42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="O42" s="3">
         <v>22000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>33600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>72000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>78000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>51000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>49900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>28000</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>7100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>50000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>54000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>110000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>89500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>85000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E43" s="3">
         <v>52000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>530000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>63000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>55000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>99000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>29000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>39300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>34000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>33000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>35500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>43000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>31000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>35000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>44400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>383000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>280000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>289000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>296000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>271000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3410,386 +3505,401 @@
         <v>0</v>
       </c>
       <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
         <v>83000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>82000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>89000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>91700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>87000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>406700</v>
+      </c>
+      <c r="E45" s="3">
         <v>422000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>403000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>220000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>131000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>109500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>147000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>116000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>111100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>20000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>35800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>40000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>102000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>53000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>49800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>62000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1061700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1034000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1299000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1291000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>582000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>865000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>644000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>550000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>919800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>501000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>464000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>293000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>329500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>463000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>364000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>345000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>327700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>367000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>478000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>510000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1504600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1054000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>884000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>869000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>853600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>956000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1079400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1966000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1807000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1611000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1899000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1571000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1209000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1261000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>532400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>137000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>91000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>118000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>119700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>304000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>297000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>290000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>301200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>478000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>498000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>509000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>228400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>287000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>295000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>185000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>208200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>295000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1321700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1243000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1215000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1257000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1224000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1099000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1044000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1018000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>904600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>804000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>784000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>684000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>684800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>681000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>670000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>659000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>635100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>627000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>609000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>628000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>616200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3503000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3507000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3553000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3497300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3524000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>220800</v>
+      </c>
+      <c r="E49" s="3">
         <v>222000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>219000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>223000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>225000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>208000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>214000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>217000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1000</v>
       </c>
       <c r="M49" s="3">
         <v>1000</v>
@@ -3798,10 +3908,10 @@
         <v>1000</v>
       </c>
       <c r="O49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P49" s="3">
         <v>1200</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1000</v>
       </c>
       <c r="Q49" s="3">
         <v>1000</v>
@@ -3810,10 +3920,10 @@
         <v>1000</v>
       </c>
       <c r="S49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T49" s="3">
         <v>1300</v>
-      </c>
-      <c r="T49" s="3">
-        <v>2000</v>
       </c>
       <c r="U49" s="3">
         <v>2000</v>
@@ -3822,28 +3932,31 @@
         <v>2000</v>
       </c>
       <c r="W49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X49" s="3">
         <v>1600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>362000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>364000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>366000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>376800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>359000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E52" s="3">
         <v>96000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>126000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>138000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>109000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>124000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>137000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>114000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>124100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>590000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>573000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>454000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>373100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>202000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>198000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>194000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>189800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>187000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>182000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>175000</v>
       </c>
       <c r="W52" s="3">
         <v>175000</v>
       </c>
       <c r="X52" s="3">
+        <v>175000</v>
+      </c>
+      <c r="Y52" s="3">
         <v>153000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>161000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>212000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>201900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>129000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3772100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4561000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4666000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4520000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4039000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3867000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3248000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3160000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2482300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2033000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1913000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1550000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1508400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1651000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1530000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1489000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1455100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1661000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1769000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1824000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2525900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5359000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5211000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5185000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5137800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5263000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E57" s="3">
         <v>122000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>108000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>126000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>342500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>138000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>136000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>154000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>128200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>68000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>54000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>62000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>61000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>58000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>65000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>49000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>42000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>58900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>260000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>226000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>289000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>285600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>336000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E58" s="3">
         <v>54000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>51000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>38000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>429000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>50000</v>
       </c>
       <c r="J58" s="3">
         <v>50000</v>
       </c>
       <c r="K58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="L58" s="3">
         <v>46500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>47000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>105000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>45600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>40000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>36000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>28000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>79000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>86000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>448000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>225000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>322000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>501000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>482800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>364000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E59" s="3">
         <v>23000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>574000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>426600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>106000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>125000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>299500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>179000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>213000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>251000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>276300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>343000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E60" s="3">
         <v>199000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>733000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>193000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>447000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>612000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>220000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>232000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>227900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>149000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>128000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>164000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>105000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>138000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>113000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>114000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>89900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>105000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>234000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>253000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>806300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>664000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>761000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1041000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1044800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1043000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1123800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1101000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1117000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1192000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1172000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1094000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1042000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1001000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>871800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>714000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>688000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>555000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>576700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>586000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>582000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>575000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>563200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>585000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>564000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>584000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>588500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3344000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3170000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2892000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2829600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2941000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E62" s="3">
         <v>151000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>177000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>174000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>168000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>151000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>156000</v>
       </c>
       <c r="J62" s="3">
         <v>156000</v>
       </c>
       <c r="K62" s="3">
+        <v>156000</v>
+      </c>
+      <c r="L62" s="3">
         <v>106600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>124000</v>
       </c>
       <c r="M62" s="3">
         <v>124000</v>
       </c>
       <c r="N62" s="3">
+        <v>124000</v>
+      </c>
+      <c r="O62" s="3">
         <v>121000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>114900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>109000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>102000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>99000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>86200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>88000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>84000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>85000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>79600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>360000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>375000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>363000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>369200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>345000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2173600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2128000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2534000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2084000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2245000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2286000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1858000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1846000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1415500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1073000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1022000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>921000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>885000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>936000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>879000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>855000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>806100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>848000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>949000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>997000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1542700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4622000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4522000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4514000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4456600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4545000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1547100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2384000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2079000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1814000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1166000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>960000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>770000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>699000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>448500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>360000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>293000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>92000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>207000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>229000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>258000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-282500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-531000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-575000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-584000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-564500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-533000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1598500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2433000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2132000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2436000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1794000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1581000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1390000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1314000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1066800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>960000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>891000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>629000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>623400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>715000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>651000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>634000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>649000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>813000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>820000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>827000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>983100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>737000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>689000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>671000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>681200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>718000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-842300</v>
+      </c>
+      <c r="E81" s="3">
         <v>251000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>265000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>639000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>392300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>538000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>172000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>180000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>145100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>279000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-61800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-29000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>545000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>236600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>9000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-411900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-48000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15000</v>
+        <v>18900</v>
       </c>
       <c r="E83" s="3">
         <v>15000</v>
       </c>
       <c r="F83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G83" s="3">
         <v>14000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7000</v>
       </c>
       <c r="N83" s="3">
         <v>7000</v>
       </c>
       <c r="O83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P83" s="3">
         <v>9100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>8000</v>
       </c>
       <c r="Q83" s="3">
         <v>8000</v>
       </c>
       <c r="R83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="S83" s="3">
         <v>7000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>178500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>43000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>44000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>48000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>172400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>48200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E89" s="3">
         <v>163000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>542000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>107500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>133000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>47000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>163400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-134000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>391900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>40000</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>101000</v>
       </c>
       <c r="Z89" s="3">
         <v>101000</v>
       </c>
       <c r="AA89" s="3">
+        <v>101000</v>
+      </c>
+      <c r="AB89" s="3">
         <v>162300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>65600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53000</v>
+        <v>-45300</v>
       </c>
       <c r="E91" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-78000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-85000</v>
-      </c>
       <c r="G91" s="3">
-        <v>-80200</v>
+        <v>-87000</v>
       </c>
       <c r="H91" s="3">
-        <v>-151000</v>
+        <v>-80700</v>
       </c>
       <c r="I91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-46000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-45000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-11000</v>
       </c>
       <c r="M91" s="3">
         <v>-11000</v>
       </c>
       <c r="N91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-28000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-227600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-40000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-290600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-32400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-80000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-430000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>377000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-144000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-98000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-327600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>211000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-89000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>50000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-197400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-115000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>217000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>584500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-62000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-114000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-399600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-36300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,38 +7419,39 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-552000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-189000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-100000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-114100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-369000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-150000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-304400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>451000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-129000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>254000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>162800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>44000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>36000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-109600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>31000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>13000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-108600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-50000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>97100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>90000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>174600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>119200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>9700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>17300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>11000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-287000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>123000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>239000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-248600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>437000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-145000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>169000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-146000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>286000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-35000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-63000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>72000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>30000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-144300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-154000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-26000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-962000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1090800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>132000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>38000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-57300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>149900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-87500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>KEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,410 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>147000</v>
+      </c>
+      <c r="F8" s="3">
         <v>145000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>163000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>121000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>146000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>134800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>353000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>105000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>115000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>104500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>117000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>76000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>89000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>89500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>102000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>85000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>97000</v>
       </c>
       <c r="T8" s="3">
         <v>85000</v>
       </c>
       <c r="U8" s="3">
+        <v>97000</v>
+      </c>
+      <c r="V8" s="3">
+        <v>85000</v>
+      </c>
+      <c r="W8" s="3">
         <v>94000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>84000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>101000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>365700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>97000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>84000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>93000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>324300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>502000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AF8" s="3">
         <v>459300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>117000</v>
+      </c>
+      <c r="F9" s="3">
         <v>122100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>130000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>113000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>110000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>110400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>279000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>93000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>92000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>90200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>93000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>66000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>65000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>69200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>77000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>72000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>68000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>78300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>69000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>71000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>71000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>297200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>76000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>75000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>72000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>278400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>399000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AF9" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="3">
         <v>22900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>33000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>36000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>24400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>74000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>12000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>23000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>14300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>24000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>10000</v>
       </c>
       <c r="O10" s="3">
         <v>24000</v>
       </c>
       <c r="P10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="R10" s="3">
         <v>20300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>25000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>13000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>29000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>6700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>25000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>13000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>30000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>68500</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>21000</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>9000</v>
       </c>
       <c r="AA10" s="3">
         <v>21000</v>
       </c>
       <c r="AB10" s="3">
+        <v>9000</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>21000</v>
+      </c>
+      <c r="AD10" s="3">
         <v>45900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>103000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AF10" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1099,10 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1187,14 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1279,14 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,65 +1314,71 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>-43500</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-6000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-11000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-63000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>-28800</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>20000</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>72300</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
       </c>
       <c r="AD14" s="3">
         <v>72300</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>72300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1463,14 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1498,194 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F17" s="3">
         <v>156100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>149000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>136000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>132000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>121200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>332000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>120000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>102000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>69000</v>
       </c>
       <c r="M17" s="3">
         <v>102000</v>
       </c>
       <c r="N17" s="3">
+        <v>69000</v>
+      </c>
+      <c r="O17" s="3">
+        <v>102000</v>
+      </c>
+      <c r="P17" s="3">
         <v>76000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>67000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>74400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>73000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>79000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>78000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>93300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>75000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>76000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>15000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>323400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>87000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>90000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>79000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>395200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>432000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>491100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>14000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-15000</v>
       </c>
       <c r="G18" s="3">
         <v>14000</v>
       </c>
       <c r="H18" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J18" s="3">
         <v>13600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>21000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-15000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>35500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>15000</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>22000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>15100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>29000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>19000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-8300</v>
       </c>
       <c r="U18" s="3">
         <v>19000</v>
       </c>
       <c r="V18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="W18" s="3">
+        <v>19000</v>
+      </c>
+      <c r="X18" s="3">
         <v>8000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>86000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>42300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>10000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>14000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-70900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>70000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1716,194 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-820200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>273000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>274000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>659000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>383100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>462000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>160000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>163000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>95900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>50000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>278000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-13000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-11000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-52800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-26000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-36000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>472000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-177900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-42000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-356000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-94000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AF20" s="3">
         <v>-239100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-812500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>302000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>274000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>687000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>411300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>526000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>161000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>189000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>142600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>74000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>285000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>32000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>24000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>6000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-53600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-21000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>566000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>42800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>27000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>18000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>20000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-254500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>24200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>-228900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1988,198 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-831400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>287000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>259000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>673000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>396600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>483000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>145000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>176000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>131400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>65000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>278000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>25000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>16000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-61000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-28000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>558000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-135600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-26000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-28000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-426900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-24000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-270900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F24" s="3">
         <v>4000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2000</v>
       </c>
       <c r="G24" s="3">
         <v>16000</v>
       </c>
       <c r="H24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J24" s="3">
         <v>22300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>6000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>72800</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
       </c>
       <c r="AA24" s="3">
         <v>4000</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AD24" s="3">
         <v>2300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>19000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AF24" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2264,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-835300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>271000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>257000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>657000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>374300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>501000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>154000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>178000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>134700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>62000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>278000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>20000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>9000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-6000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-61500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-11000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-29000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>552000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-208400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-26000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-32000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-429200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-43000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-842300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>251000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>265000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>639000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>392300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>538000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>172000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>180000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>144600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>59000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>279000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>15000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-11000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-60200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-16000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-29000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>545000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-240000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-42000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-447100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-48000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,94 +2540,106 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>8000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>26000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-1600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-4000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>476600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>47000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>22000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>35200</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AF29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2816,198 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F32" s="3">
         <v>820200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-273000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-274000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-659000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-383100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-462000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-160000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-163000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-95900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-50000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-278000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>30700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>13000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>11000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>52800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>26000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>36000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-472000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>177900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>26000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>20000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>42000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>356000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>94000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AF32" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-842300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>251000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>265000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>639000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>392300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>538000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>172000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>180000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>145100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>67000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>279000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>15000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>28000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-12000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-61800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-20000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-29000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>545000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>236600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-23000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>9000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-411900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-48000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3092,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-842300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>251000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>265000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>639000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>392300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>538000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>172000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>180000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>145100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>67000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>279000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>15000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>28000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-12000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-61800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-20000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-29000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>545000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>236600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-23000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>9000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-411900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-48000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,266 +3353,286 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>750000</v>
+      </c>
+      <c r="F41" s="3">
         <v>535200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>550000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>837000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>714000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>475000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>723000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>310000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>455000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>286200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>432000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>398000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>111000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>147200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>210000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>138000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>161000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>131100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>275000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>429000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>455000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1417400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>498000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>366000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>328000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>326600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>451000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F42" s="3">
         <v>46000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>10000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>11000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>4000</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>39000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>15000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>22000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>564200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>16000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>16000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>22000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>33600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>72000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>78000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>51000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>49900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>28000</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>7100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>50000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>54000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>110000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>89500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>85000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AF42" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F43" s="3">
         <v>73900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>52000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>48000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>530000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>63000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>55000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>99000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>44000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>47900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>33000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>31000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>29000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>39300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>34000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>32000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>33000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>35500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>43000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>31000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>35000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>44400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>383000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>280000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>289000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>296000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>271000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AF43" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3508,455 +3700,491 @@
         <v>0</v>
       </c>
       <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
         <v>83000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>82000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>89000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>91700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>87000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AF44" s="3">
         <v>86300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>518000</v>
+      </c>
+      <c r="F45" s="3">
         <v>406700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>422000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>403000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>43000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>44000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>48000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>220000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>29000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>21400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>20000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>131000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>109500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>147000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>116000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>100000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>111100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>21000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>18000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>20000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>35800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>40000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>102000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>53000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>49800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>62000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AF45" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>998000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1061700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1034000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1299000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1291000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>582000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>865000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>644000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>550000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>919800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>501000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>464000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>293000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>329500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>463000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>364000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>345000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>327700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>367000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>478000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>510000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1504600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1054000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>884000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>869000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>853600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>956000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AF46" s="3">
         <v>809900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>929000</v>
+      </c>
+      <c r="F47" s="3">
         <v>1079400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1966000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1807000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1611000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1899000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1571000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1209000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1261000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>532400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>137000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>91000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>118000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>119700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>304000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>297000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>290000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>301200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>478000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>498000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>509000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>228400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>287000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>295000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>185000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>208200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>295000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AF47" s="3">
         <v>224800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1581000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1321700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1243000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1215000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1257000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1224000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1099000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1044000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1018000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>904600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>804000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>784000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>684000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>684800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>681000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>670000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>659000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>635100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>627000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>609000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>628000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>616200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>3503000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>3507000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>3553000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>3497300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>3524000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AF48" s="3">
         <v>3487300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>245000</v>
+      </c>
+      <c r="F49" s="3">
         <v>220800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>222000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>219000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>223000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>225000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>208000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>214000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>217000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1500</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1000</v>
       </c>
       <c r="O49" s="3">
         <v>1000</v>
       </c>
       <c r="P49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q49" s="3">
         <v>1000</v>
       </c>
       <c r="R49" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="S49" s="3">
         <v>1000</v>
       </c>
       <c r="T49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V49" s="3">
         <v>1300</v>
-      </c>
-      <c r="U49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>2000</v>
       </c>
       <c r="W49" s="3">
         <v>2000</v>
       </c>
       <c r="X49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>362000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>364000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>366000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>376800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>359000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AF49" s="3">
         <v>356200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4361,106 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F52" s="3">
         <v>88400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>96000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>126000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>138000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>109000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>124000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>137000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>114000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>124100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>590000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>573000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>454000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>373100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>202000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>198000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>194000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>189800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>187000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>182000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>175000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>175000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>153000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>161000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>212000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>201900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>129000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AF52" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4545,106 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4091000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4173000</v>
+      </c>
+      <c r="F54" s="3">
         <v>3772100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4561000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4666000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4520000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4039000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3867000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3248000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3160000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2482300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2033000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1913000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1550000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1508400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1651000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1530000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1489000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1455100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1661000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1769000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1824000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2525900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>5359000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>5211000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>5185000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>5137800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>5263000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>5054900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4709,562 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>206000</v>
+      </c>
+      <c r="F57" s="3">
         <v>133400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>122000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>108000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>126000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>342500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>138000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>136000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>154000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>128200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>68000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>54000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>34000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>36000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>62000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>61000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>58000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>47700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>65000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>49000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>42000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>58900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>260000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>226000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>289000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>285600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>336000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>283300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F58" s="3">
         <v>39300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>54000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>51000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>41000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>38000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>429000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>50000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>50000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>46500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>48000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>47000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>105000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>45600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>40000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>36000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>28000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>23200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>23000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>79000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>86000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>448000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>225000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>322000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>501000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>482800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>364000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AF58" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>169000</v>
+      </c>
+      <c r="F59" s="3">
         <v>20300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>23000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>574000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>26000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>426600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>45000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>34000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>28000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>53200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>33000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>27000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>25000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>23400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>36000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>16000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>28000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>19000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>17000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>106000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>125000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>299500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>179000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>213000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>251000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>276300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>343000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AF59" s="3">
         <v>332100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>457000</v>
+      </c>
+      <c r="F60" s="3">
         <v>193000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>199000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>733000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>193000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>447000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>612000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>220000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>232000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>227900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>149000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>128000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>164000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>105000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>138000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>113000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>114000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>89900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>105000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>234000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>253000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>806300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>664000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>761000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1041000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1044800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>1043000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>955200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1123800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1101000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1117000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1192000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1172000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1094000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1042000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1001000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>871800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>714000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>688000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>555000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>576700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>586000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>582000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>575000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>563200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>585000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>564000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>584000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>588500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>3344000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>3170000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>2892000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>2829600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>2941000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AF61" s="3">
         <v>2820000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>193000</v>
+      </c>
+      <c r="F62" s="3">
         <v>159400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>151000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>177000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>174000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>168000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>151000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>156000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>156000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>106600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>124000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>124000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>121000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>114900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>109000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>102000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>99000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>86200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>88000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>84000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>85000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>79600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>360000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>375000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>363000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>369200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>345000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AF62" s="3">
         <v>336300</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5533,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2671000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2703000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2173600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2128000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2534000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2084000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2245000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2286000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1858000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1846000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1415500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1073000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1022000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>921000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>885000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>936000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>879000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>855000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>806100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>848000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>949000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>997000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1542700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4622000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>4522000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>4514000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>4456600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>4545000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>4321100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5843,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +6027,106 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1421000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1547100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2384000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2079000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1814000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1166000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>960000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>770000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>699000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>448500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>360000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>293000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>11000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>92000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>42000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>33000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>45800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>207000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>229000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>258000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-282500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-531000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-575000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-584000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-564500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-533000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>-513100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6395,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1420000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1470000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1598500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2433000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2132000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2436000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1794000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1581000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1390000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1314000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1066800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>960000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>891000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>629000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>623400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>715000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>651000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>634000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>649000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>813000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>820000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>827000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>983100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>737000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>689000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>671000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>681200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>718000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>733800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6579,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-842300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>251000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>265000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>639000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>392300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>538000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>172000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>180000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>145100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>67000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>279000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>15000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>28000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-12000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-61800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-20000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-29000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>545000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>236600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-23000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>9000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-411900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-48000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-281400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6806,102 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18900</v>
+        <v>23000</v>
       </c>
       <c r="E83" s="3">
         <v>15000</v>
       </c>
       <c r="F83" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G83" s="3">
         <v>15000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I83" s="3">
         <v>14000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>14600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>43000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>9000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>7000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>7000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>9100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>8000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>7000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>7400</v>
-      </c>
-      <c r="U83" s="3">
-        <v>8000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>7000</v>
       </c>
       <c r="W83" s="3">
         <v>8000</v>
       </c>
       <c r="X83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>178500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>43000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>44000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>48000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>172400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>48200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AF83" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7354,106 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F89" s="3">
         <v>48400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>163000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>542000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>18000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>107500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>133000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>28000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>22000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>9200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>35000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>33000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>15000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>35000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>8000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>47000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>163400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>10000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>13000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-134000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>391900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>40000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>101000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>101000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>162300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>65600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7484,102 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-45300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-60000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-78000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-87000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-80700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-61000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-46000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-45000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-24500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-28000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-5000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-11000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-36300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-13000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-16000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-227600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-40000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-290600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-32400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AF91" s="3">
         <v>-103300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7756,106 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-241000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-70400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-80000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-430000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>377000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-61500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-144000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-52000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-98000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-327600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>211000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-89000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>50000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-46000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-12000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-197400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-115000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-18000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>217000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>584500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>3000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-62000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-114000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-399600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-36300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AF94" s="3">
         <v>-167400</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,44 +7886,46 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-552000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-189000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-100000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-114100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7506,8 +7974,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8250,286 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>220000</v>
+      </c>
+      <c r="F100" s="3">
         <v>4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-369000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>21000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-150000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-304400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>451000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-129000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>254000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>162800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>44000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>36000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-109600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>31000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>13000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-8000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-108600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-50000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-10000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1049000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>97100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>90000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>3000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>174600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>119200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AF100" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>9700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>9600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1300</v>
       </c>
       <c r="Q101" s="3">
         <v>3000</v>
       </c>
       <c r="R101" s="3">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="S101" s="3">
         <v>3000</v>
       </c>
       <c r="T101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>17300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>11000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>5400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>1300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AF101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>215000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-14400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-287000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>123000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>239000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-248600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>437000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-145000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>169000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-146000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>34000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>286000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-35000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>72000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-23000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>30000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-144300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-154000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-26000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-962000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1090800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>132000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>38000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-57300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>149900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>-87500</v>
       </c>
     </row>
